--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -1,21 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602F28E8-244B-2A46-8BD3-F80EC7909629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Location" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Ossuary Numbers" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Ratio" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="Inscription Ratios" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Location Info" sheetId="5" r:id="rId8"/>
+    <sheet name="Location" sheetId="1" r:id="rId1"/>
+    <sheet name="Ossuary Numbers" sheetId="2" r:id="rId2"/>
+    <sheet name="Ratio" sheetId="3" r:id="rId3"/>
+    <sheet name="Inscription Ratios" sheetId="4" r:id="rId4"/>
+    <sheet name="Location Info" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -152,9 +161,6 @@
     <t>Number of Inscribed Ossuaries</t>
   </si>
   <si>
-    <t>Jewish</t>
-  </si>
-  <si>
     <t>Greek</t>
   </si>
   <si>
@@ -273,41 +279,72 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Imwas</t>
+  </si>
+  <si>
+    <t>tg014</t>
+  </si>
+  <si>
+    <t>Jericho, Tomb A1</t>
+  </si>
+  <si>
+    <t>R. Hachlili</t>
+  </si>
+  <si>
+    <t>A. Killebrew</t>
+  </si>
+  <si>
+    <t>tg015</t>
+  </si>
+  <si>
+    <t>Jericho, Tomb A2</t>
+  </si>
+  <si>
+    <t>Hebrew</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF303030"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="9.0"/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -315,76 +352,58 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf quotePrefix="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -574,25 +593,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="13.63"/>
-    <col customWidth="1" min="2" max="2" width="31.63"/>
-    <col customWidth="1" min="3" max="3" width="13.38"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -603,7 +627,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -614,7 +638,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -625,7 +649,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -636,7 +660,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -647,7 +671,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -658,7 +682,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -669,7 +693,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -680,7 +704,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
@@ -691,7 +715,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -702,7 +726,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -713,7 +737,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -724,7 +748,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -735,7 +759,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -746,7 +770,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
@@ -757,7 +781,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>38</v>
       </c>
@@ -768,25 +792,72 @@
         <v>40</v>
       </c>
     </row>
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="14.5"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -794,210 +865,320 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>760.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" s="3">
-        <v>201.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>608.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="1">
-        <v>609.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B6" s="1">
-        <v>610.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="1">
-        <v>895.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="3">
-        <v>872.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="3">
-        <v>865.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="3">
-        <v>612.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="3">
-        <v>681.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="3">
-        <v>683.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="1">
-        <v>684.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="1">
-        <v>685.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B15" s="1">
-        <v>686.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B16" s="1">
-        <v>687.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B17" s="1">
-        <v>688.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B18" s="1">
-        <v>187.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B19" s="1">
-        <v>669.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B20" s="1">
-        <v>670.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="1">
-        <v>158.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="1">
-        <v>91.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B23" s="1">
-        <v>92.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="1">
-        <v>93.0</v>
-      </c>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="1">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="1">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B28" s="1">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="1">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="1">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B31" s="1">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" s="1">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B36" s="1">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B37" s="1">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="1048576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1048576" s="1"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="6" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="25.63"/>
-    <col customWidth="1" min="3" max="3" width="25.75"/>
+    <col min="2" max="3" width="25.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
@@ -1008,4429 +1189,4507 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" s="5">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="C3" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="B3" s="5">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" s="5">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6">
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="7">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1.0</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C8" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="9">
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6">
-        <v>19.0</v>
-      </c>
-      <c r="C9" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="B9" s="5">
+        <v>19</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6">
-        <v>9.0</v>
-      </c>
-      <c r="C10" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="11">
+      <c r="B10" s="5">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6">
-        <v>1.0</v>
-      </c>
-      <c r="C11" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="12">
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6">
-        <v>2.0</v>
-      </c>
-      <c r="C12" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="13">
+      <c r="B12" s="5">
+        <v>2</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6">
-        <v>3.0</v>
-      </c>
-      <c r="C13" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14">
+      <c r="B13" s="5">
+        <v>3</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6">
-        <v>8.0</v>
-      </c>
-      <c r="C14" s="6">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-    </row>
-    <row r="16">
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-    </row>
-    <row r="17">
+      <c r="B14" s="5">
+        <v>8</v>
+      </c>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="5">
+        <v>7</v>
+      </c>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="5">
+        <v>9</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
     </row>
-    <row r="21">
+    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
     </row>
-    <row r="23">
+    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
     </row>
-    <row r="24">
+    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
     </row>
-    <row r="25">
+    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="5"/>
       <c r="C25" s="5"/>
     </row>
-    <row r="26">
+    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
     </row>
-    <row r="27">
+    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
     </row>
-    <row r="28">
+    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29">
+    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30">
+    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31">
+    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32">
+    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
-    <row r="33">
+    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
     </row>
-    <row r="34">
+    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
     </row>
-    <row r="35">
+    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B35" s="5"/>
       <c r="C35" s="5"/>
     </row>
-    <row r="36">
+    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B36" s="5"/>
       <c r="C36" s="5"/>
     </row>
-    <row r="37">
+    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
     </row>
-    <row r="38">
+    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
     </row>
-    <row r="39">
+    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40">
+    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41">
+    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42">
+    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43">
+    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44">
+    <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45">
+    <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46">
+    <row r="46" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47">
+    <row r="47" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48">
+    <row r="48" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
-    <row r="49">
+    <row r="49" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
     </row>
-    <row r="50">
+    <row r="50" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
     </row>
-    <row r="51">
+    <row r="51" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52">
+    <row r="52" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53">
+    <row r="53" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54">
+    <row r="54" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55">
+    <row r="55" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56">
+    <row r="56" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57">
+    <row r="57" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58">
+    <row r="58" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59">
+    <row r="59" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60">
+    <row r="60" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61">
+    <row r="61" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62">
+    <row r="62" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63">
+    <row r="63" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64">
+    <row r="64" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
     </row>
-    <row r="65">
+    <row r="65" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
     </row>
-    <row r="66">
+    <row r="66" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B66" s="5"/>
       <c r="C66" s="5"/>
     </row>
-    <row r="67">
+    <row r="67" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B67" s="5"/>
       <c r="C67" s="5"/>
     </row>
-    <row r="68">
+    <row r="68" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B68" s="5"/>
       <c r="C68" s="5"/>
     </row>
-    <row r="69">
+    <row r="69" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B69" s="5"/>
       <c r="C69" s="5"/>
     </row>
-    <row r="70">
+    <row r="70" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B70" s="5"/>
       <c r="C70" s="5"/>
     </row>
-    <row r="71">
+    <row r="71" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B71" s="5"/>
       <c r="C71" s="5"/>
     </row>
-    <row r="72">
+    <row r="72" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
     </row>
-    <row r="73">
+    <row r="73" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74">
+    <row r="74" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75">
+    <row r="75" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76">
+    <row r="76" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77">
+    <row r="77" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78">
+    <row r="78" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79">
+    <row r="79" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80">
+    <row r="80" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
-    <row r="81">
+    <row r="81" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
     </row>
-    <row r="82">
+    <row r="82" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
     </row>
-    <row r="83">
+    <row r="83" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
     </row>
-    <row r="84">
+    <row r="84" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
-    <row r="85">
+    <row r="85" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
-    <row r="86">
+    <row r="86" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
     </row>
-    <row r="87">
+    <row r="87" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
     </row>
-    <row r="88">
+    <row r="88" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
     </row>
-    <row r="89">
+    <row r="89" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
-    <row r="90">
+    <row r="90" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
     </row>
-    <row r="91">
+    <row r="91" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
     </row>
-    <row r="92">
+    <row r="92" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
-    <row r="93">
+    <row r="93" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
     </row>
-    <row r="94">
+    <row r="94" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
     </row>
-    <row r="95">
+    <row r="95" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
     </row>
-    <row r="96">
+    <row r="96" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
     </row>
-    <row r="97">
+    <row r="97" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
     </row>
-    <row r="98">
+    <row r="98" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
     </row>
-    <row r="99">
+    <row r="99" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
     </row>
-    <row r="100">
+    <row r="100" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
     </row>
-    <row r="101">
+    <row r="101" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
     </row>
-    <row r="102">
+    <row r="102" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
     </row>
-    <row r="103">
+    <row r="103" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
     </row>
-    <row r="104">
+    <row r="104" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
     </row>
-    <row r="105">
+    <row r="105" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
     </row>
-    <row r="106">
+    <row r="106" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
     </row>
-    <row r="107">
+    <row r="107" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B107" s="5"/>
       <c r="C107" s="5"/>
     </row>
-    <row r="108">
+    <row r="108" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B108" s="5"/>
       <c r="C108" s="5"/>
     </row>
-    <row r="109">
+    <row r="109" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B109" s="5"/>
       <c r="C109" s="5"/>
     </row>
-    <row r="110">
+    <row r="110" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B110" s="5"/>
       <c r="C110" s="5"/>
     </row>
-    <row r="111">
+    <row r="111" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B111" s="5"/>
       <c r="C111" s="5"/>
     </row>
-    <row r="112">
+    <row r="112" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B112" s="5"/>
       <c r="C112" s="5"/>
     </row>
-    <row r="113">
+    <row r="113" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B113" s="5"/>
       <c r="C113" s="5"/>
     </row>
-    <row r="114">
+    <row r="114" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B114" s="5"/>
       <c r="C114" s="5"/>
     </row>
-    <row r="115">
+    <row r="115" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B115" s="5"/>
       <c r="C115" s="5"/>
     </row>
-    <row r="116">
+    <row r="116" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B116" s="5"/>
       <c r="C116" s="5"/>
     </row>
-    <row r="117">
+    <row r="117" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B117" s="5"/>
       <c r="C117" s="5"/>
     </row>
-    <row r="118">
+    <row r="118" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B118" s="5"/>
       <c r="C118" s="5"/>
     </row>
-    <row r="119">
+    <row r="119" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B119" s="5"/>
       <c r="C119" s="5"/>
     </row>
-    <row r="120">
+    <row r="120" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B120" s="5"/>
       <c r="C120" s="5"/>
     </row>
-    <row r="121">
+    <row r="121" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B121" s="5"/>
       <c r="C121" s="5"/>
     </row>
-    <row r="122">
+    <row r="122" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B122" s="5"/>
       <c r="C122" s="5"/>
     </row>
-    <row r="123">
+    <row r="123" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B123" s="5"/>
       <c r="C123" s="5"/>
     </row>
-    <row r="124">
+    <row r="124" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B124" s="5"/>
       <c r="C124" s="5"/>
     </row>
-    <row r="125">
+    <row r="125" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B125" s="5"/>
       <c r="C125" s="5"/>
     </row>
-    <row r="126">
+    <row r="126" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B126" s="5"/>
       <c r="C126" s="5"/>
     </row>
-    <row r="127">
+    <row r="127" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B127" s="5"/>
       <c r="C127" s="5"/>
     </row>
-    <row r="128">
+    <row r="128" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B128" s="5"/>
       <c r="C128" s="5"/>
     </row>
-    <row r="129">
+    <row r="129" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B129" s="5"/>
       <c r="C129" s="5"/>
     </row>
-    <row r="130">
+    <row r="130" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B130" s="5"/>
       <c r="C130" s="5"/>
     </row>
-    <row r="131">
+    <row r="131" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B131" s="5"/>
       <c r="C131" s="5"/>
     </row>
-    <row r="132">
+    <row r="132" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B132" s="5"/>
       <c r="C132" s="5"/>
     </row>
-    <row r="133">
+    <row r="133" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B133" s="5"/>
       <c r="C133" s="5"/>
     </row>
-    <row r="134">
+    <row r="134" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B134" s="5"/>
       <c r="C134" s="5"/>
     </row>
-    <row r="135">
+    <row r="135" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B135" s="5"/>
       <c r="C135" s="5"/>
     </row>
-    <row r="136">
+    <row r="136" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B136" s="5"/>
       <c r="C136" s="5"/>
     </row>
-    <row r="137">
+    <row r="137" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B137" s="5"/>
       <c r="C137" s="5"/>
     </row>
-    <row r="138">
+    <row r="138" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B138" s="5"/>
       <c r="C138" s="5"/>
     </row>
-    <row r="139">
+    <row r="139" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B139" s="5"/>
       <c r="C139" s="5"/>
     </row>
-    <row r="140">
+    <row r="140" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B140" s="5"/>
       <c r="C140" s="5"/>
     </row>
-    <row r="141">
+    <row r="141" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B141" s="5"/>
       <c r="C141" s="5"/>
     </row>
-    <row r="142">
+    <row r="142" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B142" s="5"/>
       <c r="C142" s="5"/>
     </row>
-    <row r="143">
+    <row r="143" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B143" s="5"/>
       <c r="C143" s="5"/>
     </row>
-    <row r="144">
+    <row r="144" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B144" s="5"/>
       <c r="C144" s="5"/>
     </row>
-    <row r="145">
+    <row r="145" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B145" s="5"/>
       <c r="C145" s="5"/>
     </row>
-    <row r="146">
+    <row r="146" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B146" s="5"/>
       <c r="C146" s="5"/>
     </row>
-    <row r="147">
+    <row r="147" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B147" s="5"/>
       <c r="C147" s="5"/>
     </row>
-    <row r="148">
+    <row r="148" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B148" s="5"/>
       <c r="C148" s="5"/>
     </row>
-    <row r="149">
+    <row r="149" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B149" s="5"/>
       <c r="C149" s="5"/>
     </row>
-    <row r="150">
+    <row r="150" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B150" s="5"/>
       <c r="C150" s="5"/>
     </row>
-    <row r="151">
+    <row r="151" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B151" s="5"/>
       <c r="C151" s="5"/>
     </row>
-    <row r="152">
+    <row r="152" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B152" s="5"/>
       <c r="C152" s="5"/>
     </row>
-    <row r="153">
+    <row r="153" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B153" s="5"/>
       <c r="C153" s="5"/>
     </row>
-    <row r="154">
+    <row r="154" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B154" s="5"/>
       <c r="C154" s="5"/>
     </row>
-    <row r="155">
+    <row r="155" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B155" s="5"/>
       <c r="C155" s="5"/>
     </row>
-    <row r="156">
+    <row r="156" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B156" s="5"/>
       <c r="C156" s="5"/>
     </row>
-    <row r="157">
+    <row r="157" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B157" s="5"/>
       <c r="C157" s="5"/>
     </row>
-    <row r="158">
+    <row r="158" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B158" s="5"/>
       <c r="C158" s="5"/>
     </row>
-    <row r="159">
+    <row r="159" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B159" s="5"/>
       <c r="C159" s="5"/>
     </row>
-    <row r="160">
+    <row r="160" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B160" s="5"/>
       <c r="C160" s="5"/>
     </row>
-    <row r="161">
+    <row r="161" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B161" s="5"/>
       <c r="C161" s="5"/>
     </row>
-    <row r="162">
+    <row r="162" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B162" s="5"/>
       <c r="C162" s="5"/>
     </row>
-    <row r="163">
+    <row r="163" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B163" s="5"/>
       <c r="C163" s="5"/>
     </row>
-    <row r="164">
+    <row r="164" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B164" s="5"/>
       <c r="C164" s="5"/>
     </row>
-    <row r="165">
+    <row r="165" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B165" s="5"/>
       <c r="C165" s="5"/>
     </row>
-    <row r="166">
+    <row r="166" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B166" s="5"/>
       <c r="C166" s="5"/>
     </row>
-    <row r="167">
+    <row r="167" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B167" s="5"/>
       <c r="C167" s="5"/>
     </row>
-    <row r="168">
+    <row r="168" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B168" s="5"/>
       <c r="C168" s="5"/>
     </row>
-    <row r="169">
+    <row r="169" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B169" s="5"/>
       <c r="C169" s="5"/>
     </row>
-    <row r="170">
+    <row r="170" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B170" s="5"/>
       <c r="C170" s="5"/>
     </row>
-    <row r="171">
+    <row r="171" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B171" s="5"/>
       <c r="C171" s="5"/>
     </row>
-    <row r="172">
+    <row r="172" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B172" s="5"/>
       <c r="C172" s="5"/>
     </row>
-    <row r="173">
+    <row r="173" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B173" s="5"/>
       <c r="C173" s="5"/>
     </row>
-    <row r="174">
+    <row r="174" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B174" s="5"/>
       <c r="C174" s="5"/>
     </row>
-    <row r="175">
+    <row r="175" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B175" s="5"/>
       <c r="C175" s="5"/>
     </row>
-    <row r="176">
+    <row r="176" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B176" s="5"/>
       <c r="C176" s="5"/>
     </row>
-    <row r="177">
+    <row r="177" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B177" s="5"/>
       <c r="C177" s="5"/>
     </row>
-    <row r="178">
+    <row r="178" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B178" s="5"/>
       <c r="C178" s="5"/>
     </row>
-    <row r="179">
+    <row r="179" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B179" s="5"/>
       <c r="C179" s="5"/>
     </row>
-    <row r="180">
+    <row r="180" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B180" s="5"/>
       <c r="C180" s="5"/>
     </row>
-    <row r="181">
+    <row r="181" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B181" s="5"/>
       <c r="C181" s="5"/>
     </row>
-    <row r="182">
+    <row r="182" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B182" s="5"/>
       <c r="C182" s="5"/>
     </row>
-    <row r="183">
+    <row r="183" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B183" s="5"/>
       <c r="C183" s="5"/>
     </row>
-    <row r="184">
+    <row r="184" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B184" s="5"/>
       <c r="C184" s="5"/>
     </row>
-    <row r="185">
+    <row r="185" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B185" s="5"/>
       <c r="C185" s="5"/>
     </row>
-    <row r="186">
+    <row r="186" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B186" s="5"/>
       <c r="C186" s="5"/>
     </row>
-    <row r="187">
+    <row r="187" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B187" s="5"/>
       <c r="C187" s="5"/>
     </row>
-    <row r="188">
+    <row r="188" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B188" s="5"/>
       <c r="C188" s="5"/>
     </row>
-    <row r="189">
+    <row r="189" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B189" s="5"/>
       <c r="C189" s="5"/>
     </row>
-    <row r="190">
+    <row r="190" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B190" s="5"/>
       <c r="C190" s="5"/>
     </row>
-    <row r="191">
+    <row r="191" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B191" s="5"/>
       <c r="C191" s="5"/>
     </row>
-    <row r="192">
+    <row r="192" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B192" s="5"/>
       <c r="C192" s="5"/>
     </row>
-    <row r="193">
+    <row r="193" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B193" s="5"/>
       <c r="C193" s="5"/>
     </row>
-    <row r="194">
+    <row r="194" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B194" s="5"/>
       <c r="C194" s="5"/>
     </row>
-    <row r="195">
+    <row r="195" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B195" s="5"/>
       <c r="C195" s="5"/>
     </row>
-    <row r="196">
+    <row r="196" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B196" s="5"/>
       <c r="C196" s="5"/>
     </row>
-    <row r="197">
+    <row r="197" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B197" s="5"/>
       <c r="C197" s="5"/>
     </row>
-    <row r="198">
+    <row r="198" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B198" s="5"/>
       <c r="C198" s="5"/>
     </row>
-    <row r="199">
+    <row r="199" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B199" s="5"/>
       <c r="C199" s="5"/>
     </row>
-    <row r="200">
+    <row r="200" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B200" s="5"/>
       <c r="C200" s="5"/>
     </row>
-    <row r="201">
+    <row r="201" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B201" s="5"/>
       <c r="C201" s="5"/>
     </row>
-    <row r="202">
+    <row r="202" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B202" s="5"/>
       <c r="C202" s="5"/>
     </row>
-    <row r="203">
+    <row r="203" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B203" s="5"/>
       <c r="C203" s="5"/>
     </row>
-    <row r="204">
+    <row r="204" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B204" s="5"/>
       <c r="C204" s="5"/>
     </row>
-    <row r="205">
+    <row r="205" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B205" s="5"/>
       <c r="C205" s="5"/>
     </row>
-    <row r="206">
+    <row r="206" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B206" s="5"/>
       <c r="C206" s="5"/>
     </row>
-    <row r="207">
+    <row r="207" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B207" s="5"/>
       <c r="C207" s="5"/>
     </row>
-    <row r="208">
+    <row r="208" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B208" s="5"/>
       <c r="C208" s="5"/>
     </row>
-    <row r="209">
+    <row r="209" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B209" s="5"/>
       <c r="C209" s="5"/>
     </row>
-    <row r="210">
+    <row r="210" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B210" s="5"/>
       <c r="C210" s="5"/>
     </row>
-    <row r="211">
+    <row r="211" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B211" s="5"/>
       <c r="C211" s="5"/>
     </row>
-    <row r="212">
+    <row r="212" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B212" s="5"/>
       <c r="C212" s="5"/>
     </row>
-    <row r="213">
+    <row r="213" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B213" s="5"/>
       <c r="C213" s="5"/>
     </row>
-    <row r="214">
+    <row r="214" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B214" s="5"/>
       <c r="C214" s="5"/>
     </row>
-    <row r="215">
+    <row r="215" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B215" s="5"/>
       <c r="C215" s="5"/>
     </row>
-    <row r="216">
+    <row r="216" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B216" s="5"/>
       <c r="C216" s="5"/>
     </row>
-    <row r="217">
+    <row r="217" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B217" s="5"/>
       <c r="C217" s="5"/>
     </row>
-    <row r="218">
+    <row r="218" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B218" s="5"/>
       <c r="C218" s="5"/>
     </row>
-    <row r="219">
+    <row r="219" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B219" s="5"/>
       <c r="C219" s="5"/>
     </row>
-    <row r="220">
+    <row r="220" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B220" s="5"/>
       <c r="C220" s="5"/>
     </row>
-    <row r="221">
+    <row r="221" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B221" s="5"/>
       <c r="C221" s="5"/>
     </row>
-    <row r="222">
+    <row r="222" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B222" s="5"/>
       <c r="C222" s="5"/>
     </row>
-    <row r="223">
+    <row r="223" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B223" s="5"/>
       <c r="C223" s="5"/>
     </row>
-    <row r="224">
+    <row r="224" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B224" s="5"/>
       <c r="C224" s="5"/>
     </row>
-    <row r="225">
+    <row r="225" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B225" s="5"/>
       <c r="C225" s="5"/>
     </row>
-    <row r="226">
+    <row r="226" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B226" s="5"/>
       <c r="C226" s="5"/>
     </row>
-    <row r="227">
+    <row r="227" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B227" s="5"/>
       <c r="C227" s="5"/>
     </row>
-    <row r="228">
+    <row r="228" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B228" s="5"/>
       <c r="C228" s="5"/>
     </row>
-    <row r="229">
+    <row r="229" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B229" s="5"/>
       <c r="C229" s="5"/>
     </row>
-    <row r="230">
+    <row r="230" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B230" s="5"/>
       <c r="C230" s="5"/>
     </row>
-    <row r="231">
+    <row r="231" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B231" s="5"/>
       <c r="C231" s="5"/>
     </row>
-    <row r="232">
+    <row r="232" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B232" s="5"/>
       <c r="C232" s="5"/>
     </row>
-    <row r="233">
+    <row r="233" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B233" s="5"/>
       <c r="C233" s="5"/>
     </row>
-    <row r="234">
+    <row r="234" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B234" s="5"/>
       <c r="C234" s="5"/>
     </row>
-    <row r="235">
+    <row r="235" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B235" s="5"/>
       <c r="C235" s="5"/>
     </row>
-    <row r="236">
+    <row r="236" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B236" s="5"/>
       <c r="C236" s="5"/>
     </row>
-    <row r="237">
+    <row r="237" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B237" s="5"/>
       <c r="C237" s="5"/>
     </row>
-    <row r="238">
+    <row r="238" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B238" s="5"/>
       <c r="C238" s="5"/>
     </row>
-    <row r="239">
+    <row r="239" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B239" s="5"/>
       <c r="C239" s="5"/>
     </row>
-    <row r="240">
+    <row r="240" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B240" s="5"/>
       <c r="C240" s="5"/>
     </row>
-    <row r="241">
+    <row r="241" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B241" s="5"/>
       <c r="C241" s="5"/>
     </row>
-    <row r="242">
+    <row r="242" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B242" s="5"/>
       <c r="C242" s="5"/>
     </row>
-    <row r="243">
+    <row r="243" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B243" s="5"/>
       <c r="C243" s="5"/>
     </row>
-    <row r="244">
+    <row r="244" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B244" s="5"/>
       <c r="C244" s="5"/>
     </row>
-    <row r="245">
+    <row r="245" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B245" s="5"/>
       <c r="C245" s="5"/>
     </row>
-    <row r="246">
+    <row r="246" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B246" s="5"/>
       <c r="C246" s="5"/>
     </row>
-    <row r="247">
+    <row r="247" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B247" s="5"/>
       <c r="C247" s="5"/>
     </row>
-    <row r="248">
+    <row r="248" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B248" s="5"/>
       <c r="C248" s="5"/>
     </row>
-    <row r="249">
+    <row r="249" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B249" s="5"/>
       <c r="C249" s="5"/>
     </row>
-    <row r="250">
+    <row r="250" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B250" s="5"/>
       <c r="C250" s="5"/>
     </row>
-    <row r="251">
+    <row r="251" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B251" s="5"/>
       <c r="C251" s="5"/>
     </row>
-    <row r="252">
+    <row r="252" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B252" s="5"/>
       <c r="C252" s="5"/>
     </row>
-    <row r="253">
+    <row r="253" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B253" s="5"/>
       <c r="C253" s="5"/>
     </row>
-    <row r="254">
+    <row r="254" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B254" s="5"/>
       <c r="C254" s="5"/>
     </row>
-    <row r="255">
+    <row r="255" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B255" s="5"/>
       <c r="C255" s="5"/>
     </row>
-    <row r="256">
+    <row r="256" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B256" s="5"/>
       <c r="C256" s="5"/>
     </row>
-    <row r="257">
+    <row r="257" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B257" s="5"/>
       <c r="C257" s="5"/>
     </row>
-    <row r="258">
+    <row r="258" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B258" s="5"/>
       <c r="C258" s="5"/>
     </row>
-    <row r="259">
+    <row r="259" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B259" s="5"/>
       <c r="C259" s="5"/>
     </row>
-    <row r="260">
+    <row r="260" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B260" s="5"/>
       <c r="C260" s="5"/>
     </row>
-    <row r="261">
+    <row r="261" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B261" s="5"/>
       <c r="C261" s="5"/>
     </row>
-    <row r="262">
+    <row r="262" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B262" s="5"/>
       <c r="C262" s="5"/>
     </row>
-    <row r="263">
+    <row r="263" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B263" s="5"/>
       <c r="C263" s="5"/>
     </row>
-    <row r="264">
+    <row r="264" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B264" s="5"/>
       <c r="C264" s="5"/>
     </row>
-    <row r="265">
+    <row r="265" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B265" s="5"/>
       <c r="C265" s="5"/>
     </row>
-    <row r="266">
+    <row r="266" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B266" s="5"/>
       <c r="C266" s="5"/>
     </row>
-    <row r="267">
+    <row r="267" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B267" s="5"/>
       <c r="C267" s="5"/>
     </row>
-    <row r="268">
+    <row r="268" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B268" s="5"/>
       <c r="C268" s="5"/>
     </row>
-    <row r="269">
+    <row r="269" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B269" s="5"/>
       <c r="C269" s="5"/>
     </row>
-    <row r="270">
+    <row r="270" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B270" s="5"/>
       <c r="C270" s="5"/>
     </row>
-    <row r="271">
+    <row r="271" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B271" s="5"/>
       <c r="C271" s="5"/>
     </row>
-    <row r="272">
+    <row r="272" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B272" s="5"/>
       <c r="C272" s="5"/>
     </row>
-    <row r="273">
+    <row r="273" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B273" s="5"/>
       <c r="C273" s="5"/>
     </row>
-    <row r="274">
+    <row r="274" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B274" s="5"/>
       <c r="C274" s="5"/>
     </row>
-    <row r="275">
+    <row r="275" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B275" s="5"/>
       <c r="C275" s="5"/>
     </row>
-    <row r="276">
+    <row r="276" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B276" s="5"/>
       <c r="C276" s="5"/>
     </row>
-    <row r="277">
+    <row r="277" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B277" s="5"/>
       <c r="C277" s="5"/>
     </row>
-    <row r="278">
+    <row r="278" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B278" s="5"/>
       <c r="C278" s="5"/>
     </row>
-    <row r="279">
+    <row r="279" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B279" s="5"/>
       <c r="C279" s="5"/>
     </row>
-    <row r="280">
+    <row r="280" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B280" s="5"/>
       <c r="C280" s="5"/>
     </row>
-    <row r="281">
+    <row r="281" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B281" s="5"/>
       <c r="C281" s="5"/>
     </row>
-    <row r="282">
+    <row r="282" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B282" s="5"/>
       <c r="C282" s="5"/>
     </row>
-    <row r="283">
+    <row r="283" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B283" s="5"/>
       <c r="C283" s="5"/>
     </row>
-    <row r="284">
+    <row r="284" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B284" s="5"/>
       <c r="C284" s="5"/>
     </row>
-    <row r="285">
+    <row r="285" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B285" s="5"/>
       <c r="C285" s="5"/>
     </row>
-    <row r="286">
+    <row r="286" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B286" s="5"/>
       <c r="C286" s="5"/>
     </row>
-    <row r="287">
+    <row r="287" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B287" s="5"/>
       <c r="C287" s="5"/>
     </row>
-    <row r="288">
+    <row r="288" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B288" s="5"/>
       <c r="C288" s="5"/>
     </row>
-    <row r="289">
+    <row r="289" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B289" s="5"/>
       <c r="C289" s="5"/>
     </row>
-    <row r="290">
+    <row r="290" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B290" s="5"/>
       <c r="C290" s="5"/>
     </row>
-    <row r="291">
+    <row r="291" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B291" s="5"/>
       <c r="C291" s="5"/>
     </row>
-    <row r="292">
+    <row r="292" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B292" s="5"/>
       <c r="C292" s="5"/>
     </row>
-    <row r="293">
+    <row r="293" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B293" s="5"/>
       <c r="C293" s="5"/>
     </row>
-    <row r="294">
+    <row r="294" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B294" s="5"/>
       <c r="C294" s="5"/>
     </row>
-    <row r="295">
+    <row r="295" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B295" s="5"/>
       <c r="C295" s="5"/>
     </row>
-    <row r="296">
+    <row r="296" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B296" s="5"/>
       <c r="C296" s="5"/>
     </row>
-    <row r="297">
+    <row r="297" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B297" s="5"/>
       <c r="C297" s="5"/>
     </row>
-    <row r="298">
+    <row r="298" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B298" s="5"/>
       <c r="C298" s="5"/>
     </row>
-    <row r="299">
+    <row r="299" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B299" s="5"/>
       <c r="C299" s="5"/>
     </row>
-    <row r="300">
+    <row r="300" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B300" s="5"/>
       <c r="C300" s="5"/>
     </row>
-    <row r="301">
+    <row r="301" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B301" s="5"/>
       <c r="C301" s="5"/>
     </row>
-    <row r="302">
+    <row r="302" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B302" s="5"/>
       <c r="C302" s="5"/>
     </row>
-    <row r="303">
+    <row r="303" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B303" s="5"/>
       <c r="C303" s="5"/>
     </row>
-    <row r="304">
+    <row r="304" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B304" s="5"/>
       <c r="C304" s="5"/>
     </row>
-    <row r="305">
+    <row r="305" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B305" s="5"/>
       <c r="C305" s="5"/>
     </row>
-    <row r="306">
+    <row r="306" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B306" s="5"/>
       <c r="C306" s="5"/>
     </row>
-    <row r="307">
+    <row r="307" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B307" s="5"/>
       <c r="C307" s="5"/>
     </row>
-    <row r="308">
+    <row r="308" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B308" s="5"/>
       <c r="C308" s="5"/>
     </row>
-    <row r="309">
+    <row r="309" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B309" s="5"/>
       <c r="C309" s="5"/>
     </row>
-    <row r="310">
+    <row r="310" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B310" s="5"/>
       <c r="C310" s="5"/>
     </row>
-    <row r="311">
+    <row r="311" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B311" s="5"/>
       <c r="C311" s="5"/>
     </row>
-    <row r="312">
+    <row r="312" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B312" s="5"/>
       <c r="C312" s="5"/>
     </row>
-    <row r="313">
+    <row r="313" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B313" s="5"/>
       <c r="C313" s="5"/>
     </row>
-    <row r="314">
+    <row r="314" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B314" s="5"/>
       <c r="C314" s="5"/>
     </row>
-    <row r="315">
+    <row r="315" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B315" s="5"/>
       <c r="C315" s="5"/>
     </row>
-    <row r="316">
+    <row r="316" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B316" s="5"/>
       <c r="C316" s="5"/>
     </row>
-    <row r="317">
+    <row r="317" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B317" s="5"/>
       <c r="C317" s="5"/>
     </row>
-    <row r="318">
+    <row r="318" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B318" s="5"/>
       <c r="C318" s="5"/>
     </row>
-    <row r="319">
+    <row r="319" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B319" s="5"/>
       <c r="C319" s="5"/>
     </row>
-    <row r="320">
+    <row r="320" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B320" s="5"/>
       <c r="C320" s="5"/>
     </row>
-    <row r="321">
+    <row r="321" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B321" s="5"/>
       <c r="C321" s="5"/>
     </row>
-    <row r="322">
+    <row r="322" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B322" s="5"/>
       <c r="C322" s="5"/>
     </row>
-    <row r="323">
+    <row r="323" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B323" s="5"/>
       <c r="C323" s="5"/>
     </row>
-    <row r="324">
+    <row r="324" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B324" s="5"/>
       <c r="C324" s="5"/>
     </row>
-    <row r="325">
+    <row r="325" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B325" s="5"/>
       <c r="C325" s="5"/>
     </row>
-    <row r="326">
+    <row r="326" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B326" s="5"/>
       <c r="C326" s="5"/>
     </row>
-    <row r="327">
+    <row r="327" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B327" s="5"/>
       <c r="C327" s="5"/>
     </row>
-    <row r="328">
+    <row r="328" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B328" s="5"/>
       <c r="C328" s="5"/>
     </row>
-    <row r="329">
+    <row r="329" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B329" s="5"/>
       <c r="C329" s="5"/>
     </row>
-    <row r="330">
+    <row r="330" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B330" s="5"/>
       <c r="C330" s="5"/>
     </row>
-    <row r="331">
+    <row r="331" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B331" s="5"/>
       <c r="C331" s="5"/>
     </row>
-    <row r="332">
+    <row r="332" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B332" s="5"/>
       <c r="C332" s="5"/>
     </row>
-    <row r="333">
+    <row r="333" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B333" s="5"/>
       <c r="C333" s="5"/>
     </row>
-    <row r="334">
+    <row r="334" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B334" s="5"/>
       <c r="C334" s="5"/>
     </row>
-    <row r="335">
+    <row r="335" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B335" s="5"/>
       <c r="C335" s="5"/>
     </row>
-    <row r="336">
+    <row r="336" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B336" s="5"/>
       <c r="C336" s="5"/>
     </row>
-    <row r="337">
+    <row r="337" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B337" s="5"/>
       <c r="C337" s="5"/>
     </row>
-    <row r="338">
+    <row r="338" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B338" s="5"/>
       <c r="C338" s="5"/>
     </row>
-    <row r="339">
+    <row r="339" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B339" s="5"/>
       <c r="C339" s="5"/>
     </row>
-    <row r="340">
+    <row r="340" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B340" s="5"/>
       <c r="C340" s="5"/>
     </row>
-    <row r="341">
+    <row r="341" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B341" s="5"/>
       <c r="C341" s="5"/>
     </row>
-    <row r="342">
+    <row r="342" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B342" s="5"/>
       <c r="C342" s="5"/>
     </row>
-    <row r="343">
+    <row r="343" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B343" s="5"/>
       <c r="C343" s="5"/>
     </row>
-    <row r="344">
+    <row r="344" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B344" s="5"/>
       <c r="C344" s="5"/>
     </row>
-    <row r="345">
+    <row r="345" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B345" s="5"/>
       <c r="C345" s="5"/>
     </row>
-    <row r="346">
+    <row r="346" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B346" s="5"/>
       <c r="C346" s="5"/>
     </row>
-    <row r="347">
+    <row r="347" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B347" s="5"/>
       <c r="C347" s="5"/>
     </row>
-    <row r="348">
+    <row r="348" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B348" s="5"/>
       <c r="C348" s="5"/>
     </row>
-    <row r="349">
+    <row r="349" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B349" s="5"/>
       <c r="C349" s="5"/>
     </row>
-    <row r="350">
+    <row r="350" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B350" s="5"/>
       <c r="C350" s="5"/>
     </row>
-    <row r="351">
+    <row r="351" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B351" s="5"/>
       <c r="C351" s="5"/>
     </row>
-    <row r="352">
+    <row r="352" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B352" s="5"/>
       <c r="C352" s="5"/>
     </row>
-    <row r="353">
+    <row r="353" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B353" s="5"/>
       <c r="C353" s="5"/>
     </row>
-    <row r="354">
+    <row r="354" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B354" s="5"/>
       <c r="C354" s="5"/>
     </row>
-    <row r="355">
+    <row r="355" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B355" s="5"/>
       <c r="C355" s="5"/>
     </row>
-    <row r="356">
+    <row r="356" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B356" s="5"/>
       <c r="C356" s="5"/>
     </row>
-    <row r="357">
+    <row r="357" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B357" s="5"/>
       <c r="C357" s="5"/>
     </row>
-    <row r="358">
+    <row r="358" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B358" s="5"/>
       <c r="C358" s="5"/>
     </row>
-    <row r="359">
+    <row r="359" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B359" s="5"/>
       <c r="C359" s="5"/>
     </row>
-    <row r="360">
+    <row r="360" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B360" s="5"/>
       <c r="C360" s="5"/>
     </row>
-    <row r="361">
+    <row r="361" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B361" s="5"/>
       <c r="C361" s="5"/>
     </row>
-    <row r="362">
+    <row r="362" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B362" s="5"/>
       <c r="C362" s="5"/>
     </row>
-    <row r="363">
+    <row r="363" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B363" s="5"/>
       <c r="C363" s="5"/>
     </row>
-    <row r="364">
+    <row r="364" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B364" s="5"/>
       <c r="C364" s="5"/>
     </row>
-    <row r="365">
+    <row r="365" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B365" s="5"/>
       <c r="C365" s="5"/>
     </row>
-    <row r="366">
+    <row r="366" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B366" s="5"/>
       <c r="C366" s="5"/>
     </row>
-    <row r="367">
+    <row r="367" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B367" s="5"/>
       <c r="C367" s="5"/>
     </row>
-    <row r="368">
+    <row r="368" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B368" s="5"/>
       <c r="C368" s="5"/>
     </row>
-    <row r="369">
+    <row r="369" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B369" s="5"/>
       <c r="C369" s="5"/>
     </row>
-    <row r="370">
+    <row r="370" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B370" s="5"/>
       <c r="C370" s="5"/>
     </row>
-    <row r="371">
+    <row r="371" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B371" s="5"/>
       <c r="C371" s="5"/>
     </row>
-    <row r="372">
+    <row r="372" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B372" s="5"/>
       <c r="C372" s="5"/>
     </row>
-    <row r="373">
+    <row r="373" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B373" s="5"/>
       <c r="C373" s="5"/>
     </row>
-    <row r="374">
+    <row r="374" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B374" s="5"/>
       <c r="C374" s="5"/>
     </row>
-    <row r="375">
+    <row r="375" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B375" s="5"/>
       <c r="C375" s="5"/>
     </row>
-    <row r="376">
+    <row r="376" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B376" s="5"/>
       <c r="C376" s="5"/>
     </row>
-    <row r="377">
+    <row r="377" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B377" s="5"/>
       <c r="C377" s="5"/>
     </row>
-    <row r="378">
+    <row r="378" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B378" s="5"/>
       <c r="C378" s="5"/>
     </row>
-    <row r="379">
+    <row r="379" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B379" s="5"/>
       <c r="C379" s="5"/>
     </row>
-    <row r="380">
+    <row r="380" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B380" s="5"/>
       <c r="C380" s="5"/>
     </row>
-    <row r="381">
+    <row r="381" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B381" s="5"/>
       <c r="C381" s="5"/>
     </row>
-    <row r="382">
+    <row r="382" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B382" s="5"/>
       <c r="C382" s="5"/>
     </row>
-    <row r="383">
+    <row r="383" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B383" s="5"/>
       <c r="C383" s="5"/>
     </row>
-    <row r="384">
+    <row r="384" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B384" s="5"/>
       <c r="C384" s="5"/>
     </row>
-    <row r="385">
+    <row r="385" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B385" s="5"/>
       <c r="C385" s="5"/>
     </row>
-    <row r="386">
+    <row r="386" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B386" s="5"/>
       <c r="C386" s="5"/>
     </row>
-    <row r="387">
+    <row r="387" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B387" s="5"/>
       <c r="C387" s="5"/>
     </row>
-    <row r="388">
+    <row r="388" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B388" s="5"/>
       <c r="C388" s="5"/>
     </row>
-    <row r="389">
+    <row r="389" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B389" s="5"/>
       <c r="C389" s="5"/>
     </row>
-    <row r="390">
+    <row r="390" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B390" s="5"/>
       <c r="C390" s="5"/>
     </row>
-    <row r="391">
+    <row r="391" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B391" s="5"/>
       <c r="C391" s="5"/>
     </row>
-    <row r="392">
+    <row r="392" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B392" s="5"/>
       <c r="C392" s="5"/>
     </row>
-    <row r="393">
+    <row r="393" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B393" s="5"/>
       <c r="C393" s="5"/>
     </row>
-    <row r="394">
+    <row r="394" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B394" s="5"/>
       <c r="C394" s="5"/>
     </row>
-    <row r="395">
+    <row r="395" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B395" s="5"/>
       <c r="C395" s="5"/>
     </row>
-    <row r="396">
+    <row r="396" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B396" s="5"/>
       <c r="C396" s="5"/>
     </row>
-    <row r="397">
+    <row r="397" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B397" s="5"/>
       <c r="C397" s="5"/>
     </row>
-    <row r="398">
+    <row r="398" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B398" s="5"/>
       <c r="C398" s="5"/>
     </row>
-    <row r="399">
+    <row r="399" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B399" s="5"/>
       <c r="C399" s="5"/>
     </row>
-    <row r="400">
+    <row r="400" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B400" s="5"/>
       <c r="C400" s="5"/>
     </row>
-    <row r="401">
+    <row r="401" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B401" s="5"/>
       <c r="C401" s="5"/>
     </row>
-    <row r="402">
+    <row r="402" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B402" s="5"/>
       <c r="C402" s="5"/>
     </row>
-    <row r="403">
+    <row r="403" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B403" s="5"/>
       <c r="C403" s="5"/>
     </row>
-    <row r="404">
+    <row r="404" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B404" s="5"/>
       <c r="C404" s="5"/>
     </row>
-    <row r="405">
+    <row r="405" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B405" s="5"/>
       <c r="C405" s="5"/>
     </row>
-    <row r="406">
+    <row r="406" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B406" s="5"/>
       <c r="C406" s="5"/>
     </row>
-    <row r="407">
+    <row r="407" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B407" s="5"/>
       <c r="C407" s="5"/>
     </row>
-    <row r="408">
+    <row r="408" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B408" s="5"/>
       <c r="C408" s="5"/>
     </row>
-    <row r="409">
+    <row r="409" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B409" s="5"/>
       <c r="C409" s="5"/>
     </row>
-    <row r="410">
+    <row r="410" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B410" s="5"/>
       <c r="C410" s="5"/>
     </row>
-    <row r="411">
+    <row r="411" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B411" s="5"/>
       <c r="C411" s="5"/>
     </row>
-    <row r="412">
+    <row r="412" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B412" s="5"/>
       <c r="C412" s="5"/>
     </row>
-    <row r="413">
+    <row r="413" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B413" s="5"/>
       <c r="C413" s="5"/>
     </row>
-    <row r="414">
+    <row r="414" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B414" s="5"/>
       <c r="C414" s="5"/>
     </row>
-    <row r="415">
+    <row r="415" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B415" s="5"/>
       <c r="C415" s="5"/>
     </row>
-    <row r="416">
+    <row r="416" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B416" s="5"/>
       <c r="C416" s="5"/>
     </row>
-    <row r="417">
+    <row r="417" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B417" s="5"/>
       <c r="C417" s="5"/>
     </row>
-    <row r="418">
+    <row r="418" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B418" s="5"/>
       <c r="C418" s="5"/>
     </row>
-    <row r="419">
+    <row r="419" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B419" s="5"/>
       <c r="C419" s="5"/>
     </row>
-    <row r="420">
+    <row r="420" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B420" s="5"/>
       <c r="C420" s="5"/>
     </row>
-    <row r="421">
+    <row r="421" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B421" s="5"/>
       <c r="C421" s="5"/>
     </row>
-    <row r="422">
+    <row r="422" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B422" s="5"/>
       <c r="C422" s="5"/>
     </row>
-    <row r="423">
+    <row r="423" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B423" s="5"/>
       <c r="C423" s="5"/>
     </row>
-    <row r="424">
+    <row r="424" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B424" s="5"/>
       <c r="C424" s="5"/>
     </row>
-    <row r="425">
+    <row r="425" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B425" s="5"/>
       <c r="C425" s="5"/>
     </row>
-    <row r="426">
+    <row r="426" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B426" s="5"/>
       <c r="C426" s="5"/>
     </row>
-    <row r="427">
+    <row r="427" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B427" s="5"/>
       <c r="C427" s="5"/>
     </row>
-    <row r="428">
+    <row r="428" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B428" s="5"/>
       <c r="C428" s="5"/>
     </row>
-    <row r="429">
+    <row r="429" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B429" s="5"/>
       <c r="C429" s="5"/>
     </row>
-    <row r="430">
+    <row r="430" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B430" s="5"/>
       <c r="C430" s="5"/>
     </row>
-    <row r="431">
+    <row r="431" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B431" s="5"/>
       <c r="C431" s="5"/>
     </row>
-    <row r="432">
+    <row r="432" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B432" s="5"/>
       <c r="C432" s="5"/>
     </row>
-    <row r="433">
+    <row r="433" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B433" s="5"/>
       <c r="C433" s="5"/>
     </row>
-    <row r="434">
+    <row r="434" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B434" s="5"/>
       <c r="C434" s="5"/>
     </row>
-    <row r="435">
+    <row r="435" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B435" s="5"/>
       <c r="C435" s="5"/>
     </row>
-    <row r="436">
+    <row r="436" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B436" s="5"/>
       <c r="C436" s="5"/>
     </row>
-    <row r="437">
+    <row r="437" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B437" s="5"/>
       <c r="C437" s="5"/>
     </row>
-    <row r="438">
+    <row r="438" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B438" s="5"/>
       <c r="C438" s="5"/>
     </row>
-    <row r="439">
+    <row r="439" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B439" s="5"/>
       <c r="C439" s="5"/>
     </row>
-    <row r="440">
+    <row r="440" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B440" s="5"/>
       <c r="C440" s="5"/>
     </row>
-    <row r="441">
+    <row r="441" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B441" s="5"/>
       <c r="C441" s="5"/>
     </row>
-    <row r="442">
+    <row r="442" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B442" s="5"/>
       <c r="C442" s="5"/>
     </row>
-    <row r="443">
+    <row r="443" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B443" s="5"/>
       <c r="C443" s="5"/>
     </row>
-    <row r="444">
+    <row r="444" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B444" s="5"/>
       <c r="C444" s="5"/>
     </row>
-    <row r="445">
+    <row r="445" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B445" s="5"/>
       <c r="C445" s="5"/>
     </row>
-    <row r="446">
+    <row r="446" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B446" s="5"/>
       <c r="C446" s="5"/>
     </row>
-    <row r="447">
+    <row r="447" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B447" s="5"/>
       <c r="C447" s="5"/>
     </row>
-    <row r="448">
+    <row r="448" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B448" s="5"/>
       <c r="C448" s="5"/>
     </row>
-    <row r="449">
+    <row r="449" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B449" s="5"/>
       <c r="C449" s="5"/>
     </row>
-    <row r="450">
+    <row r="450" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B450" s="5"/>
       <c r="C450" s="5"/>
     </row>
-    <row r="451">
+    <row r="451" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B451" s="5"/>
       <c r="C451" s="5"/>
     </row>
-    <row r="452">
+    <row r="452" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B452" s="5"/>
       <c r="C452" s="5"/>
     </row>
-    <row r="453">
+    <row r="453" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B453" s="5"/>
       <c r="C453" s="5"/>
     </row>
-    <row r="454">
+    <row r="454" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B454" s="5"/>
       <c r="C454" s="5"/>
     </row>
-    <row r="455">
+    <row r="455" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B455" s="5"/>
       <c r="C455" s="5"/>
     </row>
-    <row r="456">
+    <row r="456" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B456" s="5"/>
       <c r="C456" s="5"/>
     </row>
-    <row r="457">
+    <row r="457" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B457" s="5"/>
       <c r="C457" s="5"/>
     </row>
-    <row r="458">
+    <row r="458" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B458" s="5"/>
       <c r="C458" s="5"/>
     </row>
-    <row r="459">
+    <row r="459" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B459" s="5"/>
       <c r="C459" s="5"/>
     </row>
-    <row r="460">
+    <row r="460" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B460" s="5"/>
       <c r="C460" s="5"/>
     </row>
-    <row r="461">
+    <row r="461" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B461" s="5"/>
       <c r="C461" s="5"/>
     </row>
-    <row r="462">
+    <row r="462" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B462" s="5"/>
       <c r="C462" s="5"/>
     </row>
-    <row r="463">
+    <row r="463" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B463" s="5"/>
       <c r="C463" s="5"/>
     </row>
-    <row r="464">
+    <row r="464" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B464" s="5"/>
       <c r="C464" s="5"/>
     </row>
-    <row r="465">
+    <row r="465" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B465" s="5"/>
       <c r="C465" s="5"/>
     </row>
-    <row r="466">
+    <row r="466" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B466" s="5"/>
       <c r="C466" s="5"/>
     </row>
-    <row r="467">
+    <row r="467" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B467" s="5"/>
       <c r="C467" s="5"/>
     </row>
-    <row r="468">
+    <row r="468" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B468" s="5"/>
       <c r="C468" s="5"/>
     </row>
-    <row r="469">
+    <row r="469" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B469" s="5"/>
       <c r="C469" s="5"/>
     </row>
-    <row r="470">
+    <row r="470" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B470" s="5"/>
       <c r="C470" s="5"/>
     </row>
-    <row r="471">
+    <row r="471" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B471" s="5"/>
       <c r="C471" s="5"/>
     </row>
-    <row r="472">
+    <row r="472" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B472" s="5"/>
       <c r="C472" s="5"/>
     </row>
-    <row r="473">
+    <row r="473" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B473" s="5"/>
       <c r="C473" s="5"/>
     </row>
-    <row r="474">
+    <row r="474" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B474" s="5"/>
       <c r="C474" s="5"/>
     </row>
-    <row r="475">
+    <row r="475" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B475" s="5"/>
       <c r="C475" s="5"/>
     </row>
-    <row r="476">
+    <row r="476" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B476" s="5"/>
       <c r="C476" s="5"/>
     </row>
-    <row r="477">
+    <row r="477" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B477" s="5"/>
       <c r="C477" s="5"/>
     </row>
-    <row r="478">
+    <row r="478" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B478" s="5"/>
       <c r="C478" s="5"/>
     </row>
-    <row r="479">
+    <row r="479" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B479" s="5"/>
       <c r="C479" s="5"/>
     </row>
-    <row r="480">
+    <row r="480" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B480" s="5"/>
       <c r="C480" s="5"/>
     </row>
-    <row r="481">
+    <row r="481" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B481" s="5"/>
       <c r="C481" s="5"/>
     </row>
-    <row r="482">
+    <row r="482" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B482" s="5"/>
       <c r="C482" s="5"/>
     </row>
-    <row r="483">
+    <row r="483" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B483" s="5"/>
       <c r="C483" s="5"/>
     </row>
-    <row r="484">
+    <row r="484" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B484" s="5"/>
       <c r="C484" s="5"/>
     </row>
-    <row r="485">
+    <row r="485" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B485" s="5"/>
       <c r="C485" s="5"/>
     </row>
-    <row r="486">
+    <row r="486" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B486" s="5"/>
       <c r="C486" s="5"/>
     </row>
-    <row r="487">
+    <row r="487" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B487" s="5"/>
       <c r="C487" s="5"/>
     </row>
-    <row r="488">
+    <row r="488" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B488" s="5"/>
       <c r="C488" s="5"/>
     </row>
-    <row r="489">
+    <row r="489" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B489" s="5"/>
       <c r="C489" s="5"/>
     </row>
-    <row r="490">
+    <row r="490" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B490" s="5"/>
       <c r="C490" s="5"/>
     </row>
-    <row r="491">
+    <row r="491" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B491" s="5"/>
       <c r="C491" s="5"/>
     </row>
-    <row r="492">
+    <row r="492" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B492" s="5"/>
       <c r="C492" s="5"/>
     </row>
-    <row r="493">
+    <row r="493" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B493" s="5"/>
       <c r="C493" s="5"/>
     </row>
-    <row r="494">
+    <row r="494" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B494" s="5"/>
       <c r="C494" s="5"/>
     </row>
-    <row r="495">
+    <row r="495" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B495" s="5"/>
       <c r="C495" s="5"/>
     </row>
-    <row r="496">
+    <row r="496" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B496" s="5"/>
       <c r="C496" s="5"/>
     </row>
-    <row r="497">
+    <row r="497" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B497" s="5"/>
       <c r="C497" s="5"/>
     </row>
-    <row r="498">
+    <row r="498" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B498" s="5"/>
       <c r="C498" s="5"/>
     </row>
-    <row r="499">
+    <row r="499" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B499" s="5"/>
       <c r="C499" s="5"/>
     </row>
-    <row r="500">
+    <row r="500" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B500" s="5"/>
       <c r="C500" s="5"/>
     </row>
-    <row r="501">
+    <row r="501" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B501" s="5"/>
       <c r="C501" s="5"/>
     </row>
-    <row r="502">
+    <row r="502" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B502" s="5"/>
       <c r="C502" s="5"/>
     </row>
-    <row r="503">
+    <row r="503" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B503" s="5"/>
       <c r="C503" s="5"/>
     </row>
-    <row r="504">
+    <row r="504" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B504" s="5"/>
       <c r="C504" s="5"/>
     </row>
-    <row r="505">
+    <row r="505" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B505" s="5"/>
       <c r="C505" s="5"/>
     </row>
-    <row r="506">
+    <row r="506" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B506" s="5"/>
       <c r="C506" s="5"/>
     </row>
-    <row r="507">
+    <row r="507" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B507" s="5"/>
       <c r="C507" s="5"/>
     </row>
-    <row r="508">
+    <row r="508" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B508" s="5"/>
       <c r="C508" s="5"/>
     </row>
-    <row r="509">
+    <row r="509" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B509" s="5"/>
       <c r="C509" s="5"/>
     </row>
-    <row r="510">
+    <row r="510" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B510" s="5"/>
       <c r="C510" s="5"/>
     </row>
-    <row r="511">
+    <row r="511" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B511" s="5"/>
       <c r="C511" s="5"/>
     </row>
-    <row r="512">
+    <row r="512" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B512" s="5"/>
       <c r="C512" s="5"/>
     </row>
-    <row r="513">
+    <row r="513" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B513" s="5"/>
       <c r="C513" s="5"/>
     </row>
-    <row r="514">
+    <row r="514" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B514" s="5"/>
       <c r="C514" s="5"/>
     </row>
-    <row r="515">
+    <row r="515" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B515" s="5"/>
       <c r="C515" s="5"/>
     </row>
-    <row r="516">
+    <row r="516" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B516" s="5"/>
       <c r="C516" s="5"/>
     </row>
-    <row r="517">
+    <row r="517" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B517" s="5"/>
       <c r="C517" s="5"/>
     </row>
-    <row r="518">
+    <row r="518" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B518" s="5"/>
       <c r="C518" s="5"/>
     </row>
-    <row r="519">
+    <row r="519" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B519" s="5"/>
       <c r="C519" s="5"/>
     </row>
-    <row r="520">
+    <row r="520" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B520" s="5"/>
       <c r="C520" s="5"/>
     </row>
-    <row r="521">
+    <row r="521" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B521" s="5"/>
       <c r="C521" s="5"/>
     </row>
-    <row r="522">
+    <row r="522" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B522" s="5"/>
       <c r="C522" s="5"/>
     </row>
-    <row r="523">
+    <row r="523" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B523" s="5"/>
       <c r="C523" s="5"/>
     </row>
-    <row r="524">
+    <row r="524" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B524" s="5"/>
       <c r="C524" s="5"/>
     </row>
-    <row r="525">
+    <row r="525" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B525" s="5"/>
       <c r="C525" s="5"/>
     </row>
-    <row r="526">
+    <row r="526" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B526" s="5"/>
       <c r="C526" s="5"/>
     </row>
-    <row r="527">
+    <row r="527" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B527" s="5"/>
       <c r="C527" s="5"/>
     </row>
-    <row r="528">
+    <row r="528" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B528" s="5"/>
       <c r="C528" s="5"/>
     </row>
-    <row r="529">
+    <row r="529" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B529" s="5"/>
       <c r="C529" s="5"/>
     </row>
-    <row r="530">
+    <row r="530" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B530" s="5"/>
       <c r="C530" s="5"/>
     </row>
-    <row r="531">
+    <row r="531" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B531" s="5"/>
       <c r="C531" s="5"/>
     </row>
-    <row r="532">
+    <row r="532" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B532" s="5"/>
       <c r="C532" s="5"/>
     </row>
-    <row r="533">
+    <row r="533" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B533" s="5"/>
       <c r="C533" s="5"/>
     </row>
-    <row r="534">
+    <row r="534" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B534" s="5"/>
       <c r="C534" s="5"/>
     </row>
-    <row r="535">
+    <row r="535" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B535" s="5"/>
       <c r="C535" s="5"/>
     </row>
-    <row r="536">
+    <row r="536" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B536" s="5"/>
       <c r="C536" s="5"/>
     </row>
-    <row r="537">
+    <row r="537" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B537" s="5"/>
       <c r="C537" s="5"/>
     </row>
-    <row r="538">
+    <row r="538" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B538" s="5"/>
       <c r="C538" s="5"/>
     </row>
-    <row r="539">
+    <row r="539" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B539" s="5"/>
       <c r="C539" s="5"/>
     </row>
-    <row r="540">
+    <row r="540" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B540" s="5"/>
       <c r="C540" s="5"/>
     </row>
-    <row r="541">
+    <row r="541" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B541" s="5"/>
       <c r="C541" s="5"/>
     </row>
-    <row r="542">
+    <row r="542" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B542" s="5"/>
       <c r="C542" s="5"/>
     </row>
-    <row r="543">
+    <row r="543" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B543" s="5"/>
       <c r="C543" s="5"/>
     </row>
-    <row r="544">
+    <row r="544" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B544" s="5"/>
       <c r="C544" s="5"/>
     </row>
-    <row r="545">
+    <row r="545" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B545" s="5"/>
       <c r="C545" s="5"/>
     </row>
-    <row r="546">
+    <row r="546" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B546" s="5"/>
       <c r="C546" s="5"/>
     </row>
-    <row r="547">
+    <row r="547" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B547" s="5"/>
       <c r="C547" s="5"/>
     </row>
-    <row r="548">
+    <row r="548" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B548" s="5"/>
       <c r="C548" s="5"/>
     </row>
-    <row r="549">
+    <row r="549" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B549" s="5"/>
       <c r="C549" s="5"/>
     </row>
-    <row r="550">
+    <row r="550" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B550" s="5"/>
       <c r="C550" s="5"/>
     </row>
-    <row r="551">
+    <row r="551" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B551" s="5"/>
       <c r="C551" s="5"/>
     </row>
-    <row r="552">
+    <row r="552" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B552" s="5"/>
       <c r="C552" s="5"/>
     </row>
-    <row r="553">
+    <row r="553" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B553" s="5"/>
       <c r="C553" s="5"/>
     </row>
-    <row r="554">
+    <row r="554" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B554" s="5"/>
       <c r="C554" s="5"/>
     </row>
-    <row r="555">
+    <row r="555" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B555" s="5"/>
       <c r="C555" s="5"/>
     </row>
-    <row r="556">
+    <row r="556" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B556" s="5"/>
       <c r="C556" s="5"/>
     </row>
-    <row r="557">
+    <row r="557" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B557" s="5"/>
       <c r="C557" s="5"/>
     </row>
-    <row r="558">
+    <row r="558" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B558" s="5"/>
       <c r="C558" s="5"/>
     </row>
-    <row r="559">
+    <row r="559" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B559" s="5"/>
       <c r="C559" s="5"/>
     </row>
-    <row r="560">
+    <row r="560" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B560" s="5"/>
       <c r="C560" s="5"/>
     </row>
-    <row r="561">
+    <row r="561" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B561" s="5"/>
       <c r="C561" s="5"/>
     </row>
-    <row r="562">
+    <row r="562" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B562" s="5"/>
       <c r="C562" s="5"/>
     </row>
-    <row r="563">
+    <row r="563" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B563" s="5"/>
       <c r="C563" s="5"/>
     </row>
-    <row r="564">
+    <row r="564" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B564" s="5"/>
       <c r="C564" s="5"/>
     </row>
-    <row r="565">
+    <row r="565" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B565" s="5"/>
       <c r="C565" s="5"/>
     </row>
-    <row r="566">
+    <row r="566" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B566" s="5"/>
       <c r="C566" s="5"/>
     </row>
-    <row r="567">
+    <row r="567" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B567" s="5"/>
       <c r="C567" s="5"/>
     </row>
-    <row r="568">
+    <row r="568" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B568" s="5"/>
       <c r="C568" s="5"/>
     </row>
-    <row r="569">
+    <row r="569" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B569" s="5"/>
       <c r="C569" s="5"/>
     </row>
-    <row r="570">
+    <row r="570" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B570" s="5"/>
       <c r="C570" s="5"/>
     </row>
-    <row r="571">
+    <row r="571" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B571" s="5"/>
       <c r="C571" s="5"/>
     </row>
-    <row r="572">
+    <row r="572" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B572" s="5"/>
       <c r="C572" s="5"/>
     </row>
-    <row r="573">
+    <row r="573" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B573" s="5"/>
       <c r="C573" s="5"/>
     </row>
-    <row r="574">
+    <row r="574" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B574" s="5"/>
       <c r="C574" s="5"/>
     </row>
-    <row r="575">
+    <row r="575" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B575" s="5"/>
       <c r="C575" s="5"/>
     </row>
-    <row r="576">
+    <row r="576" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B576" s="5"/>
       <c r="C576" s="5"/>
     </row>
-    <row r="577">
+    <row r="577" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B577" s="5"/>
       <c r="C577" s="5"/>
     </row>
-    <row r="578">
+    <row r="578" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B578" s="5"/>
       <c r="C578" s="5"/>
     </row>
-    <row r="579">
+    <row r="579" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B579" s="5"/>
       <c r="C579" s="5"/>
     </row>
-    <row r="580">
+    <row r="580" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B580" s="5"/>
       <c r="C580" s="5"/>
     </row>
-    <row r="581">
+    <row r="581" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B581" s="5"/>
       <c r="C581" s="5"/>
     </row>
-    <row r="582">
+    <row r="582" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B582" s="5"/>
       <c r="C582" s="5"/>
     </row>
-    <row r="583">
+    <row r="583" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B583" s="5"/>
       <c r="C583" s="5"/>
     </row>
-    <row r="584">
+    <row r="584" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B584" s="5"/>
       <c r="C584" s="5"/>
     </row>
-    <row r="585">
+    <row r="585" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B585" s="5"/>
       <c r="C585" s="5"/>
     </row>
-    <row r="586">
+    <row r="586" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B586" s="5"/>
       <c r="C586" s="5"/>
     </row>
-    <row r="587">
+    <row r="587" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B587" s="5"/>
       <c r="C587" s="5"/>
     </row>
-    <row r="588">
+    <row r="588" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B588" s="5"/>
       <c r="C588" s="5"/>
     </row>
-    <row r="589">
+    <row r="589" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B589" s="5"/>
       <c r="C589" s="5"/>
     </row>
-    <row r="590">
+    <row r="590" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B590" s="5"/>
       <c r="C590" s="5"/>
     </row>
-    <row r="591">
+    <row r="591" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B591" s="5"/>
       <c r="C591" s="5"/>
     </row>
-    <row r="592">
+    <row r="592" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B592" s="5"/>
       <c r="C592" s="5"/>
     </row>
-    <row r="593">
+    <row r="593" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B593" s="5"/>
       <c r="C593" s="5"/>
     </row>
-    <row r="594">
+    <row r="594" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B594" s="5"/>
       <c r="C594" s="5"/>
     </row>
-    <row r="595">
+    <row r="595" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B595" s="5"/>
       <c r="C595" s="5"/>
     </row>
-    <row r="596">
+    <row r="596" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B596" s="5"/>
       <c r="C596" s="5"/>
     </row>
-    <row r="597">
+    <row r="597" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B597" s="5"/>
       <c r="C597" s="5"/>
     </row>
-    <row r="598">
+    <row r="598" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B598" s="5"/>
       <c r="C598" s="5"/>
     </row>
-    <row r="599">
+    <row r="599" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B599" s="5"/>
       <c r="C599" s="5"/>
     </row>
-    <row r="600">
+    <row r="600" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B600" s="5"/>
       <c r="C600" s="5"/>
     </row>
-    <row r="601">
+    <row r="601" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B601" s="5"/>
       <c r="C601" s="5"/>
     </row>
-    <row r="602">
+    <row r="602" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B602" s="5"/>
       <c r="C602" s="5"/>
     </row>
-    <row r="603">
+    <row r="603" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B603" s="5"/>
       <c r="C603" s="5"/>
     </row>
-    <row r="604">
+    <row r="604" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B604" s="5"/>
       <c r="C604" s="5"/>
     </row>
-    <row r="605">
+    <row r="605" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B605" s="5"/>
       <c r="C605" s="5"/>
     </row>
-    <row r="606">
+    <row r="606" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B606" s="5"/>
       <c r="C606" s="5"/>
     </row>
-    <row r="607">
+    <row r="607" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B607" s="5"/>
       <c r="C607" s="5"/>
     </row>
-    <row r="608">
+    <row r="608" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B608" s="5"/>
       <c r="C608" s="5"/>
     </row>
-    <row r="609">
+    <row r="609" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B609" s="5"/>
       <c r="C609" s="5"/>
     </row>
-    <row r="610">
+    <row r="610" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B610" s="5"/>
       <c r="C610" s="5"/>
     </row>
-    <row r="611">
+    <row r="611" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B611" s="5"/>
       <c r="C611" s="5"/>
     </row>
-    <row r="612">
+    <row r="612" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B612" s="5"/>
       <c r="C612" s="5"/>
     </row>
-    <row r="613">
+    <row r="613" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B613" s="5"/>
       <c r="C613" s="5"/>
     </row>
-    <row r="614">
+    <row r="614" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B614" s="5"/>
       <c r="C614" s="5"/>
     </row>
-    <row r="615">
+    <row r="615" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B615" s="5"/>
       <c r="C615" s="5"/>
     </row>
-    <row r="616">
+    <row r="616" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B616" s="5"/>
       <c r="C616" s="5"/>
     </row>
-    <row r="617">
+    <row r="617" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B617" s="5"/>
       <c r="C617" s="5"/>
     </row>
-    <row r="618">
+    <row r="618" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B618" s="5"/>
       <c r="C618" s="5"/>
     </row>
-    <row r="619">
+    <row r="619" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B619" s="5"/>
       <c r="C619" s="5"/>
     </row>
-    <row r="620">
+    <row r="620" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B620" s="5"/>
       <c r="C620" s="5"/>
     </row>
-    <row r="621">
+    <row r="621" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B621" s="5"/>
       <c r="C621" s="5"/>
     </row>
-    <row r="622">
+    <row r="622" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B622" s="5"/>
       <c r="C622" s="5"/>
     </row>
-    <row r="623">
+    <row r="623" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B623" s="5"/>
       <c r="C623" s="5"/>
     </row>
-    <row r="624">
+    <row r="624" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B624" s="5"/>
       <c r="C624" s="5"/>
     </row>
-    <row r="625">
+    <row r="625" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B625" s="5"/>
       <c r="C625" s="5"/>
     </row>
-    <row r="626">
+    <row r="626" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B626" s="5"/>
       <c r="C626" s="5"/>
     </row>
-    <row r="627">
+    <row r="627" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B627" s="5"/>
       <c r="C627" s="5"/>
     </row>
-    <row r="628">
+    <row r="628" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B628" s="5"/>
       <c r="C628" s="5"/>
     </row>
-    <row r="629">
+    <row r="629" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B629" s="5"/>
       <c r="C629" s="5"/>
     </row>
-    <row r="630">
+    <row r="630" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B630" s="5"/>
       <c r="C630" s="5"/>
     </row>
-    <row r="631">
+    <row r="631" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B631" s="5"/>
       <c r="C631" s="5"/>
     </row>
-    <row r="632">
+    <row r="632" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B632" s="5"/>
       <c r="C632" s="5"/>
     </row>
-    <row r="633">
+    <row r="633" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B633" s="5"/>
       <c r="C633" s="5"/>
     </row>
-    <row r="634">
+    <row r="634" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B634" s="5"/>
       <c r="C634" s="5"/>
     </row>
-    <row r="635">
+    <row r="635" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B635" s="5"/>
       <c r="C635" s="5"/>
     </row>
-    <row r="636">
+    <row r="636" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B636" s="5"/>
       <c r="C636" s="5"/>
     </row>
-    <row r="637">
+    <row r="637" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B637" s="5"/>
       <c r="C637" s="5"/>
     </row>
-    <row r="638">
+    <row r="638" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B638" s="5"/>
       <c r="C638" s="5"/>
     </row>
-    <row r="639">
+    <row r="639" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B639" s="5"/>
       <c r="C639" s="5"/>
     </row>
-    <row r="640">
+    <row r="640" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B640" s="5"/>
       <c r="C640" s="5"/>
     </row>
-    <row r="641">
+    <row r="641" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B641" s="5"/>
       <c r="C641" s="5"/>
     </row>
-    <row r="642">
+    <row r="642" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B642" s="5"/>
       <c r="C642" s="5"/>
     </row>
-    <row r="643">
+    <row r="643" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B643" s="5"/>
       <c r="C643" s="5"/>
     </row>
-    <row r="644">
+    <row r="644" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B644" s="5"/>
       <c r="C644" s="5"/>
     </row>
-    <row r="645">
+    <row r="645" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B645" s="5"/>
       <c r="C645" s="5"/>
     </row>
-    <row r="646">
+    <row r="646" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B646" s="5"/>
       <c r="C646" s="5"/>
     </row>
-    <row r="647">
+    <row r="647" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B647" s="5"/>
       <c r="C647" s="5"/>
     </row>
-    <row r="648">
+    <row r="648" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B648" s="5"/>
       <c r="C648" s="5"/>
     </row>
-    <row r="649">
+    <row r="649" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B649" s="5"/>
       <c r="C649" s="5"/>
     </row>
-    <row r="650">
+    <row r="650" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B650" s="5"/>
       <c r="C650" s="5"/>
     </row>
-    <row r="651">
+    <row r="651" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B651" s="5"/>
       <c r="C651" s="5"/>
     </row>
-    <row r="652">
+    <row r="652" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B652" s="5"/>
       <c r="C652" s="5"/>
     </row>
-    <row r="653">
+    <row r="653" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B653" s="5"/>
       <c r="C653" s="5"/>
     </row>
-    <row r="654">
+    <row r="654" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B654" s="5"/>
       <c r="C654" s="5"/>
     </row>
-    <row r="655">
+    <row r="655" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B655" s="5"/>
       <c r="C655" s="5"/>
     </row>
-    <row r="656">
+    <row r="656" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B656" s="5"/>
       <c r="C656" s="5"/>
     </row>
-    <row r="657">
+    <row r="657" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B657" s="5"/>
       <c r="C657" s="5"/>
     </row>
-    <row r="658">
+    <row r="658" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B658" s="5"/>
       <c r="C658" s="5"/>
     </row>
-    <row r="659">
+    <row r="659" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B659" s="5"/>
       <c r="C659" s="5"/>
     </row>
-    <row r="660">
+    <row r="660" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B660" s="5"/>
       <c r="C660" s="5"/>
     </row>
-    <row r="661">
+    <row r="661" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B661" s="5"/>
       <c r="C661" s="5"/>
     </row>
-    <row r="662">
+    <row r="662" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B662" s="5"/>
       <c r="C662" s="5"/>
     </row>
-    <row r="663">
+    <row r="663" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B663" s="5"/>
       <c r="C663" s="5"/>
     </row>
-    <row r="664">
+    <row r="664" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B664" s="5"/>
       <c r="C664" s="5"/>
     </row>
-    <row r="665">
+    <row r="665" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B665" s="5"/>
       <c r="C665" s="5"/>
     </row>
-    <row r="666">
+    <row r="666" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B666" s="5"/>
       <c r="C666" s="5"/>
     </row>
-    <row r="667">
+    <row r="667" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B667" s="5"/>
       <c r="C667" s="5"/>
     </row>
-    <row r="668">
+    <row r="668" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B668" s="5"/>
       <c r="C668" s="5"/>
     </row>
-    <row r="669">
+    <row r="669" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B669" s="5"/>
       <c r="C669" s="5"/>
     </row>
-    <row r="670">
+    <row r="670" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B670" s="5"/>
       <c r="C670" s="5"/>
     </row>
-    <row r="671">
+    <row r="671" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B671" s="5"/>
       <c r="C671" s="5"/>
     </row>
-    <row r="672">
+    <row r="672" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B672" s="5"/>
       <c r="C672" s="5"/>
     </row>
-    <row r="673">
+    <row r="673" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B673" s="5"/>
       <c r="C673" s="5"/>
     </row>
-    <row r="674">
+    <row r="674" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B674" s="5"/>
       <c r="C674" s="5"/>
     </row>
-    <row r="675">
+    <row r="675" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B675" s="5"/>
       <c r="C675" s="5"/>
     </row>
-    <row r="676">
+    <row r="676" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B676" s="5"/>
       <c r="C676" s="5"/>
     </row>
-    <row r="677">
+    <row r="677" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B677" s="5"/>
       <c r="C677" s="5"/>
     </row>
-    <row r="678">
+    <row r="678" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B678" s="5"/>
       <c r="C678" s="5"/>
     </row>
-    <row r="679">
+    <row r="679" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B679" s="5"/>
       <c r="C679" s="5"/>
     </row>
-    <row r="680">
+    <row r="680" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B680" s="5"/>
       <c r="C680" s="5"/>
     </row>
-    <row r="681">
+    <row r="681" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B681" s="5"/>
       <c r="C681" s="5"/>
     </row>
-    <row r="682">
+    <row r="682" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B682" s="5"/>
       <c r="C682" s="5"/>
     </row>
-    <row r="683">
+    <row r="683" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B683" s="5"/>
       <c r="C683" s="5"/>
     </row>
-    <row r="684">
+    <row r="684" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B684" s="5"/>
       <c r="C684" s="5"/>
     </row>
-    <row r="685">
+    <row r="685" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B685" s="5"/>
       <c r="C685" s="5"/>
     </row>
-    <row r="686">
+    <row r="686" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B686" s="5"/>
       <c r="C686" s="5"/>
     </row>
-    <row r="687">
+    <row r="687" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B687" s="5"/>
       <c r="C687" s="5"/>
     </row>
-    <row r="688">
+    <row r="688" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B688" s="5"/>
       <c r="C688" s="5"/>
     </row>
-    <row r="689">
+    <row r="689" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B689" s="5"/>
       <c r="C689" s="5"/>
     </row>
-    <row r="690">
+    <row r="690" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B690" s="5"/>
       <c r="C690" s="5"/>
     </row>
-    <row r="691">
+    <row r="691" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B691" s="5"/>
       <c r="C691" s="5"/>
     </row>
-    <row r="692">
+    <row r="692" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B692" s="5"/>
       <c r="C692" s="5"/>
     </row>
-    <row r="693">
+    <row r="693" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B693" s="5"/>
       <c r="C693" s="5"/>
     </row>
-    <row r="694">
+    <row r="694" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B694" s="5"/>
       <c r="C694" s="5"/>
     </row>
-    <row r="695">
+    <row r="695" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B695" s="5"/>
       <c r="C695" s="5"/>
     </row>
-    <row r="696">
+    <row r="696" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B696" s="5"/>
       <c r="C696" s="5"/>
     </row>
-    <row r="697">
+    <row r="697" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B697" s="5"/>
       <c r="C697" s="5"/>
     </row>
-    <row r="698">
+    <row r="698" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B698" s="5"/>
       <c r="C698" s="5"/>
     </row>
-    <row r="699">
+    <row r="699" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B699" s="5"/>
       <c r="C699" s="5"/>
     </row>
-    <row r="700">
+    <row r="700" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B700" s="5"/>
       <c r="C700" s="5"/>
     </row>
-    <row r="701">
+    <row r="701" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B701" s="5"/>
       <c r="C701" s="5"/>
     </row>
-    <row r="702">
+    <row r="702" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B702" s="5"/>
       <c r="C702" s="5"/>
     </row>
-    <row r="703">
+    <row r="703" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B703" s="5"/>
       <c r="C703" s="5"/>
     </row>
-    <row r="704">
+    <row r="704" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B704" s="5"/>
       <c r="C704" s="5"/>
     </row>
-    <row r="705">
+    <row r="705" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B705" s="5"/>
       <c r="C705" s="5"/>
     </row>
-    <row r="706">
+    <row r="706" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B706" s="5"/>
       <c r="C706" s="5"/>
     </row>
-    <row r="707">
+    <row r="707" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B707" s="5"/>
       <c r="C707" s="5"/>
     </row>
-    <row r="708">
+    <row r="708" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B708" s="5"/>
       <c r="C708" s="5"/>
     </row>
-    <row r="709">
+    <row r="709" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B709" s="5"/>
       <c r="C709" s="5"/>
     </row>
-    <row r="710">
+    <row r="710" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B710" s="5"/>
       <c r="C710" s="5"/>
     </row>
-    <row r="711">
+    <row r="711" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B711" s="5"/>
       <c r="C711" s="5"/>
     </row>
-    <row r="712">
+    <row r="712" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B712" s="5"/>
       <c r="C712" s="5"/>
     </row>
-    <row r="713">
+    <row r="713" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B713" s="5"/>
       <c r="C713" s="5"/>
     </row>
-    <row r="714">
+    <row r="714" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B714" s="5"/>
       <c r="C714" s="5"/>
     </row>
-    <row r="715">
+    <row r="715" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B715" s="5"/>
       <c r="C715" s="5"/>
     </row>
-    <row r="716">
+    <row r="716" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B716" s="5"/>
       <c r="C716" s="5"/>
     </row>
-    <row r="717">
+    <row r="717" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B717" s="5"/>
       <c r="C717" s="5"/>
     </row>
-    <row r="718">
+    <row r="718" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B718" s="5"/>
       <c r="C718" s="5"/>
     </row>
-    <row r="719">
+    <row r="719" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B719" s="5"/>
       <c r="C719" s="5"/>
     </row>
-    <row r="720">
+    <row r="720" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B720" s="5"/>
       <c r="C720" s="5"/>
     </row>
-    <row r="721">
+    <row r="721" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B721" s="5"/>
       <c r="C721" s="5"/>
     </row>
-    <row r="722">
+    <row r="722" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B722" s="5"/>
       <c r="C722" s="5"/>
     </row>
-    <row r="723">
+    <row r="723" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B723" s="5"/>
       <c r="C723" s="5"/>
     </row>
-    <row r="724">
+    <row r="724" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B724" s="5"/>
       <c r="C724" s="5"/>
     </row>
-    <row r="725">
+    <row r="725" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B725" s="5"/>
       <c r="C725" s="5"/>
     </row>
-    <row r="726">
+    <row r="726" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B726" s="5"/>
       <c r="C726" s="5"/>
     </row>
-    <row r="727">
+    <row r="727" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B727" s="5"/>
       <c r="C727" s="5"/>
     </row>
-    <row r="728">
+    <row r="728" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B728" s="5"/>
       <c r="C728" s="5"/>
     </row>
-    <row r="729">
+    <row r="729" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B729" s="5"/>
       <c r="C729" s="5"/>
     </row>
-    <row r="730">
+    <row r="730" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B730" s="5"/>
       <c r="C730" s="5"/>
     </row>
-    <row r="731">
+    <row r="731" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B731" s="5"/>
       <c r="C731" s="5"/>
     </row>
-    <row r="732">
+    <row r="732" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B732" s="5"/>
       <c r="C732" s="5"/>
     </row>
-    <row r="733">
+    <row r="733" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B733" s="5"/>
       <c r="C733" s="5"/>
     </row>
-    <row r="734">
+    <row r="734" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B734" s="5"/>
       <c r="C734" s="5"/>
     </row>
-    <row r="735">
+    <row r="735" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B735" s="5"/>
       <c r="C735" s="5"/>
     </row>
-    <row r="736">
+    <row r="736" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B736" s="5"/>
       <c r="C736" s="5"/>
     </row>
-    <row r="737">
+    <row r="737" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B737" s="5"/>
       <c r="C737" s="5"/>
     </row>
-    <row r="738">
+    <row r="738" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B738" s="5"/>
       <c r="C738" s="5"/>
     </row>
-    <row r="739">
+    <row r="739" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B739" s="5"/>
       <c r="C739" s="5"/>
     </row>
-    <row r="740">
+    <row r="740" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B740" s="5"/>
       <c r="C740" s="5"/>
     </row>
-    <row r="741">
+    <row r="741" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B741" s="5"/>
       <c r="C741" s="5"/>
     </row>
-    <row r="742">
+    <row r="742" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B742" s="5"/>
       <c r="C742" s="5"/>
     </row>
-    <row r="743">
+    <row r="743" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B743" s="5"/>
       <c r="C743" s="5"/>
     </row>
-    <row r="744">
+    <row r="744" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B744" s="5"/>
       <c r="C744" s="5"/>
     </row>
-    <row r="745">
+    <row r="745" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B745" s="5"/>
       <c r="C745" s="5"/>
     </row>
-    <row r="746">
+    <row r="746" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B746" s="5"/>
       <c r="C746" s="5"/>
     </row>
-    <row r="747">
+    <row r="747" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B747" s="5"/>
       <c r="C747" s="5"/>
     </row>
-    <row r="748">
+    <row r="748" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B748" s="5"/>
       <c r="C748" s="5"/>
     </row>
-    <row r="749">
+    <row r="749" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B749" s="5"/>
       <c r="C749" s="5"/>
     </row>
-    <row r="750">
+    <row r="750" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B750" s="5"/>
       <c r="C750" s="5"/>
     </row>
-    <row r="751">
+    <row r="751" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B751" s="5"/>
       <c r="C751" s="5"/>
     </row>
-    <row r="752">
+    <row r="752" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B752" s="5"/>
       <c r="C752" s="5"/>
     </row>
-    <row r="753">
+    <row r="753" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B753" s="5"/>
       <c r="C753" s="5"/>
     </row>
-    <row r="754">
+    <row r="754" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B754" s="5"/>
       <c r="C754" s="5"/>
     </row>
-    <row r="755">
+    <row r="755" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B755" s="5"/>
       <c r="C755" s="5"/>
     </row>
-    <row r="756">
+    <row r="756" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B756" s="5"/>
       <c r="C756" s="5"/>
     </row>
-    <row r="757">
+    <row r="757" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B757" s="5"/>
       <c r="C757" s="5"/>
     </row>
-    <row r="758">
+    <row r="758" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B758" s="5"/>
       <c r="C758" s="5"/>
     </row>
-    <row r="759">
+    <row r="759" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B759" s="5"/>
       <c r="C759" s="5"/>
     </row>
-    <row r="760">
+    <row r="760" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B760" s="5"/>
       <c r="C760" s="5"/>
     </row>
-    <row r="761">
+    <row r="761" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B761" s="5"/>
       <c r="C761" s="5"/>
     </row>
-    <row r="762">
+    <row r="762" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B762" s="5"/>
       <c r="C762" s="5"/>
     </row>
-    <row r="763">
+    <row r="763" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B763" s="5"/>
       <c r="C763" s="5"/>
     </row>
-    <row r="764">
+    <row r="764" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B764" s="5"/>
       <c r="C764" s="5"/>
     </row>
-    <row r="765">
+    <row r="765" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B765" s="5"/>
       <c r="C765" s="5"/>
     </row>
-    <row r="766">
+    <row r="766" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B766" s="5"/>
       <c r="C766" s="5"/>
     </row>
-    <row r="767">
+    <row r="767" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B767" s="5"/>
       <c r="C767" s="5"/>
     </row>
-    <row r="768">
+    <row r="768" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B768" s="5"/>
       <c r="C768" s="5"/>
     </row>
-    <row r="769">
+    <row r="769" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B769" s="5"/>
       <c r="C769" s="5"/>
     </row>
-    <row r="770">
+    <row r="770" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B770" s="5"/>
       <c r="C770" s="5"/>
     </row>
-    <row r="771">
+    <row r="771" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B771" s="5"/>
       <c r="C771" s="5"/>
     </row>
-    <row r="772">
+    <row r="772" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B772" s="5"/>
       <c r="C772" s="5"/>
     </row>
-    <row r="773">
+    <row r="773" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B773" s="5"/>
       <c r="C773" s="5"/>
     </row>
-    <row r="774">
+    <row r="774" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B774" s="5"/>
       <c r="C774" s="5"/>
     </row>
-    <row r="775">
+    <row r="775" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B775" s="5"/>
       <c r="C775" s="5"/>
     </row>
-    <row r="776">
+    <row r="776" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B776" s="5"/>
       <c r="C776" s="5"/>
     </row>
-    <row r="777">
+    <row r="777" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B777" s="5"/>
       <c r="C777" s="5"/>
     </row>
-    <row r="778">
+    <row r="778" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B778" s="5"/>
       <c r="C778" s="5"/>
     </row>
-    <row r="779">
+    <row r="779" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B779" s="5"/>
       <c r="C779" s="5"/>
     </row>
-    <row r="780">
+    <row r="780" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B780" s="5"/>
       <c r="C780" s="5"/>
     </row>
-    <row r="781">
+    <row r="781" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B781" s="5"/>
       <c r="C781" s="5"/>
     </row>
-    <row r="782">
+    <row r="782" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B782" s="5"/>
       <c r="C782" s="5"/>
     </row>
-    <row r="783">
+    <row r="783" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B783" s="5"/>
       <c r="C783" s="5"/>
     </row>
-    <row r="784">
+    <row r="784" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B784" s="5"/>
       <c r="C784" s="5"/>
     </row>
-    <row r="785">
+    <row r="785" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B785" s="5"/>
       <c r="C785" s="5"/>
     </row>
-    <row r="786">
+    <row r="786" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B786" s="5"/>
       <c r="C786" s="5"/>
     </row>
-    <row r="787">
+    <row r="787" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B787" s="5"/>
       <c r="C787" s="5"/>
     </row>
-    <row r="788">
+    <row r="788" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B788" s="5"/>
       <c r="C788" s="5"/>
     </row>
-    <row r="789">
+    <row r="789" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B789" s="5"/>
       <c r="C789" s="5"/>
     </row>
-    <row r="790">
+    <row r="790" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B790" s="5"/>
       <c r="C790" s="5"/>
     </row>
-    <row r="791">
+    <row r="791" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B791" s="5"/>
       <c r="C791" s="5"/>
     </row>
-    <row r="792">
+    <row r="792" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B792" s="5"/>
       <c r="C792" s="5"/>
     </row>
-    <row r="793">
+    <row r="793" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B793" s="5"/>
       <c r="C793" s="5"/>
     </row>
-    <row r="794">
+    <row r="794" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B794" s="5"/>
       <c r="C794" s="5"/>
     </row>
-    <row r="795">
+    <row r="795" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B795" s="5"/>
       <c r="C795" s="5"/>
     </row>
-    <row r="796">
+    <row r="796" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B796" s="5"/>
       <c r="C796" s="5"/>
     </row>
-    <row r="797">
+    <row r="797" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B797" s="5"/>
       <c r="C797" s="5"/>
     </row>
-    <row r="798">
+    <row r="798" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B798" s="5"/>
       <c r="C798" s="5"/>
     </row>
-    <row r="799">
+    <row r="799" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B799" s="5"/>
       <c r="C799" s="5"/>
     </row>
-    <row r="800">
+    <row r="800" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B800" s="5"/>
       <c r="C800" s="5"/>
     </row>
-    <row r="801">
+    <row r="801" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B801" s="5"/>
       <c r="C801" s="5"/>
     </row>
-    <row r="802">
+    <row r="802" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B802" s="5"/>
       <c r="C802" s="5"/>
     </row>
-    <row r="803">
+    <row r="803" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B803" s="5"/>
       <c r="C803" s="5"/>
     </row>
-    <row r="804">
+    <row r="804" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B804" s="5"/>
       <c r="C804" s="5"/>
     </row>
-    <row r="805">
+    <row r="805" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B805" s="5"/>
       <c r="C805" s="5"/>
     </row>
-    <row r="806">
+    <row r="806" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B806" s="5"/>
       <c r="C806" s="5"/>
     </row>
-    <row r="807">
+    <row r="807" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B807" s="5"/>
       <c r="C807" s="5"/>
     </row>
-    <row r="808">
+    <row r="808" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B808" s="5"/>
       <c r="C808" s="5"/>
     </row>
-    <row r="809">
+    <row r="809" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B809" s="5"/>
       <c r="C809" s="5"/>
     </row>
-    <row r="810">
+    <row r="810" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B810" s="5"/>
       <c r="C810" s="5"/>
     </row>
-    <row r="811">
+    <row r="811" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B811" s="5"/>
       <c r="C811" s="5"/>
     </row>
-    <row r="812">
+    <row r="812" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B812" s="5"/>
       <c r="C812" s="5"/>
     </row>
-    <row r="813">
+    <row r="813" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B813" s="5"/>
       <c r="C813" s="5"/>
     </row>
-    <row r="814">
+    <row r="814" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B814" s="5"/>
       <c r="C814" s="5"/>
     </row>
-    <row r="815">
+    <row r="815" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B815" s="5"/>
       <c r="C815" s="5"/>
     </row>
-    <row r="816">
+    <row r="816" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B816" s="5"/>
       <c r="C816" s="5"/>
     </row>
-    <row r="817">
+    <row r="817" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B817" s="5"/>
       <c r="C817" s="5"/>
     </row>
-    <row r="818">
+    <row r="818" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B818" s="5"/>
       <c r="C818" s="5"/>
     </row>
-    <row r="819">
+    <row r="819" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B819" s="5"/>
       <c r="C819" s="5"/>
     </row>
-    <row r="820">
+    <row r="820" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B820" s="5"/>
       <c r="C820" s="5"/>
     </row>
-    <row r="821">
+    <row r="821" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B821" s="5"/>
       <c r="C821" s="5"/>
     </row>
-    <row r="822">
+    <row r="822" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B822" s="5"/>
       <c r="C822" s="5"/>
     </row>
-    <row r="823">
+    <row r="823" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B823" s="5"/>
       <c r="C823" s="5"/>
     </row>
-    <row r="824">
+    <row r="824" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B824" s="5"/>
       <c r="C824" s="5"/>
     </row>
-    <row r="825">
+    <row r="825" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B825" s="5"/>
       <c r="C825" s="5"/>
     </row>
-    <row r="826">
+    <row r="826" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B826" s="5"/>
       <c r="C826" s="5"/>
     </row>
-    <row r="827">
+    <row r="827" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B827" s="5"/>
       <c r="C827" s="5"/>
     </row>
-    <row r="828">
+    <row r="828" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B828" s="5"/>
       <c r="C828" s="5"/>
     </row>
-    <row r="829">
+    <row r="829" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B829" s="5"/>
       <c r="C829" s="5"/>
     </row>
-    <row r="830">
+    <row r="830" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B830" s="5"/>
       <c r="C830" s="5"/>
     </row>
-    <row r="831">
+    <row r="831" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B831" s="5"/>
       <c r="C831" s="5"/>
     </row>
-    <row r="832">
+    <row r="832" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B832" s="5"/>
       <c r="C832" s="5"/>
     </row>
-    <row r="833">
+    <row r="833" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B833" s="5"/>
       <c r="C833" s="5"/>
     </row>
-    <row r="834">
+    <row r="834" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B834" s="5"/>
       <c r="C834" s="5"/>
     </row>
-    <row r="835">
+    <row r="835" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B835" s="5"/>
       <c r="C835" s="5"/>
     </row>
-    <row r="836">
+    <row r="836" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B836" s="5"/>
       <c r="C836" s="5"/>
     </row>
-    <row r="837">
+    <row r="837" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B837" s="5"/>
       <c r="C837" s="5"/>
     </row>
-    <row r="838">
+    <row r="838" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B838" s="5"/>
       <c r="C838" s="5"/>
     </row>
-    <row r="839">
+    <row r="839" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B839" s="5"/>
       <c r="C839" s="5"/>
     </row>
-    <row r="840">
+    <row r="840" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B840" s="5"/>
       <c r="C840" s="5"/>
     </row>
-    <row r="841">
+    <row r="841" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B841" s="5"/>
       <c r="C841" s="5"/>
     </row>
-    <row r="842">
+    <row r="842" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B842" s="5"/>
       <c r="C842" s="5"/>
     </row>
-    <row r="843">
+    <row r="843" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B843" s="5"/>
       <c r="C843" s="5"/>
     </row>
-    <row r="844">
+    <row r="844" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B844" s="5"/>
       <c r="C844" s="5"/>
     </row>
-    <row r="845">
+    <row r="845" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B845" s="5"/>
       <c r="C845" s="5"/>
     </row>
-    <row r="846">
+    <row r="846" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B846" s="5"/>
       <c r="C846" s="5"/>
     </row>
-    <row r="847">
+    <row r="847" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B847" s="5"/>
       <c r="C847" s="5"/>
     </row>
-    <row r="848">
+    <row r="848" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B848" s="5"/>
       <c r="C848" s="5"/>
     </row>
-    <row r="849">
+    <row r="849" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B849" s="5"/>
       <c r="C849" s="5"/>
     </row>
-    <row r="850">
+    <row r="850" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B850" s="5"/>
       <c r="C850" s="5"/>
     </row>
-    <row r="851">
+    <row r="851" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B851" s="5"/>
       <c r="C851" s="5"/>
     </row>
-    <row r="852">
+    <row r="852" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B852" s="5"/>
       <c r="C852" s="5"/>
     </row>
-    <row r="853">
+    <row r="853" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B853" s="5"/>
       <c r="C853" s="5"/>
     </row>
-    <row r="854">
+    <row r="854" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B854" s="5"/>
       <c r="C854" s="5"/>
     </row>
-    <row r="855">
+    <row r="855" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B855" s="5"/>
       <c r="C855" s="5"/>
     </row>
-    <row r="856">
+    <row r="856" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B856" s="5"/>
       <c r="C856" s="5"/>
     </row>
-    <row r="857">
+    <row r="857" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B857" s="5"/>
       <c r="C857" s="5"/>
     </row>
-    <row r="858">
+    <row r="858" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B858" s="5"/>
       <c r="C858" s="5"/>
     </row>
-    <row r="859">
+    <row r="859" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B859" s="5"/>
       <c r="C859" s="5"/>
     </row>
-    <row r="860">
+    <row r="860" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B860" s="5"/>
       <c r="C860" s="5"/>
     </row>
-    <row r="861">
+    <row r="861" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B861" s="5"/>
       <c r="C861" s="5"/>
     </row>
-    <row r="862">
+    <row r="862" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B862" s="5"/>
       <c r="C862" s="5"/>
     </row>
-    <row r="863">
+    <row r="863" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B863" s="5"/>
       <c r="C863" s="5"/>
     </row>
-    <row r="864">
+    <row r="864" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B864" s="5"/>
       <c r="C864" s="5"/>
     </row>
-    <row r="865">
+    <row r="865" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B865" s="5"/>
       <c r="C865" s="5"/>
     </row>
-    <row r="866">
+    <row r="866" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B866" s="5"/>
       <c r="C866" s="5"/>
     </row>
-    <row r="867">
+    <row r="867" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B867" s="5"/>
       <c r="C867" s="5"/>
     </row>
-    <row r="868">
+    <row r="868" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B868" s="5"/>
       <c r="C868" s="5"/>
     </row>
-    <row r="869">
+    <row r="869" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B869" s="5"/>
       <c r="C869" s="5"/>
     </row>
-    <row r="870">
+    <row r="870" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B870" s="5"/>
       <c r="C870" s="5"/>
     </row>
-    <row r="871">
+    <row r="871" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B871" s="5"/>
       <c r="C871" s="5"/>
     </row>
-    <row r="872">
+    <row r="872" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B872" s="5"/>
       <c r="C872" s="5"/>
     </row>
-    <row r="873">
+    <row r="873" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B873" s="5"/>
       <c r="C873" s="5"/>
     </row>
-    <row r="874">
+    <row r="874" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B874" s="5"/>
       <c r="C874" s="5"/>
     </row>
-    <row r="875">
+    <row r="875" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B875" s="5"/>
       <c r="C875" s="5"/>
     </row>
-    <row r="876">
+    <row r="876" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B876" s="5"/>
       <c r="C876" s="5"/>
     </row>
-    <row r="877">
+    <row r="877" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B877" s="5"/>
       <c r="C877" s="5"/>
     </row>
-    <row r="878">
+    <row r="878" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B878" s="5"/>
       <c r="C878" s="5"/>
     </row>
-    <row r="879">
+    <row r="879" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B879" s="5"/>
       <c r="C879" s="5"/>
     </row>
-    <row r="880">
+    <row r="880" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B880" s="5"/>
       <c r="C880" s="5"/>
     </row>
-    <row r="881">
+    <row r="881" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B881" s="5"/>
       <c r="C881" s="5"/>
     </row>
-    <row r="882">
+    <row r="882" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B882" s="5"/>
       <c r="C882" s="5"/>
     </row>
-    <row r="883">
+    <row r="883" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B883" s="5"/>
       <c r="C883" s="5"/>
     </row>
-    <row r="884">
+    <row r="884" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B884" s="5"/>
       <c r="C884" s="5"/>
     </row>
-    <row r="885">
+    <row r="885" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B885" s="5"/>
       <c r="C885" s="5"/>
     </row>
-    <row r="886">
+    <row r="886" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B886" s="5"/>
       <c r="C886" s="5"/>
     </row>
-    <row r="887">
+    <row r="887" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B887" s="5"/>
       <c r="C887" s="5"/>
     </row>
-    <row r="888">
+    <row r="888" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B888" s="5"/>
       <c r="C888" s="5"/>
     </row>
-    <row r="889">
+    <row r="889" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B889" s="5"/>
       <c r="C889" s="5"/>
     </row>
-    <row r="890">
+    <row r="890" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B890" s="5"/>
       <c r="C890" s="5"/>
     </row>
-    <row r="891">
+    <row r="891" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B891" s="5"/>
       <c r="C891" s="5"/>
     </row>
-    <row r="892">
+    <row r="892" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B892" s="5"/>
       <c r="C892" s="5"/>
     </row>
-    <row r="893">
+    <row r="893" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B893" s="5"/>
       <c r="C893" s="5"/>
     </row>
-    <row r="894">
+    <row r="894" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B894" s="5"/>
       <c r="C894" s="5"/>
     </row>
-    <row r="895">
+    <row r="895" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B895" s="5"/>
       <c r="C895" s="5"/>
     </row>
-    <row r="896">
+    <row r="896" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B896" s="5"/>
       <c r="C896" s="5"/>
     </row>
-    <row r="897">
+    <row r="897" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B897" s="5"/>
       <c r="C897" s="5"/>
     </row>
-    <row r="898">
+    <row r="898" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B898" s="5"/>
       <c r="C898" s="5"/>
     </row>
-    <row r="899">
+    <row r="899" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B899" s="5"/>
       <c r="C899" s="5"/>
     </row>
-    <row r="900">
+    <row r="900" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B900" s="5"/>
       <c r="C900" s="5"/>
     </row>
-    <row r="901">
+    <row r="901" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B901" s="5"/>
       <c r="C901" s="5"/>
     </row>
-    <row r="902">
+    <row r="902" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B902" s="5"/>
       <c r="C902" s="5"/>
     </row>
-    <row r="903">
+    <row r="903" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B903" s="5"/>
       <c r="C903" s="5"/>
     </row>
-    <row r="904">
+    <row r="904" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B904" s="5"/>
       <c r="C904" s="5"/>
     </row>
-    <row r="905">
+    <row r="905" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B905" s="5"/>
       <c r="C905" s="5"/>
     </row>
-    <row r="906">
+    <row r="906" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B906" s="5"/>
       <c r="C906" s="5"/>
     </row>
-    <row r="907">
+    <row r="907" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B907" s="5"/>
       <c r="C907" s="5"/>
     </row>
-    <row r="908">
+    <row r="908" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B908" s="5"/>
       <c r="C908" s="5"/>
     </row>
-    <row r="909">
+    <row r="909" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B909" s="5"/>
       <c r="C909" s="5"/>
     </row>
-    <row r="910">
+    <row r="910" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B910" s="5"/>
       <c r="C910" s="5"/>
     </row>
-    <row r="911">
+    <row r="911" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B911" s="5"/>
       <c r="C911" s="5"/>
     </row>
-    <row r="912">
+    <row r="912" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B912" s="5"/>
       <c r="C912" s="5"/>
     </row>
-    <row r="913">
+    <row r="913" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B913" s="5"/>
       <c r="C913" s="5"/>
     </row>
-    <row r="914">
+    <row r="914" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B914" s="5"/>
       <c r="C914" s="5"/>
     </row>
-    <row r="915">
+    <row r="915" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B915" s="5"/>
       <c r="C915" s="5"/>
     </row>
-    <row r="916">
+    <row r="916" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B916" s="5"/>
       <c r="C916" s="5"/>
     </row>
-    <row r="917">
+    <row r="917" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B917" s="5"/>
       <c r="C917" s="5"/>
     </row>
-    <row r="918">
+    <row r="918" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B918" s="5"/>
       <c r="C918" s="5"/>
     </row>
-    <row r="919">
+    <row r="919" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B919" s="5"/>
       <c r="C919" s="5"/>
     </row>
-    <row r="920">
+    <row r="920" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B920" s="5"/>
       <c r="C920" s="5"/>
     </row>
-    <row r="921">
+    <row r="921" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B921" s="5"/>
       <c r="C921" s="5"/>
     </row>
-    <row r="922">
+    <row r="922" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B922" s="5"/>
       <c r="C922" s="5"/>
     </row>
-    <row r="923">
+    <row r="923" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B923" s="5"/>
       <c r="C923" s="5"/>
     </row>
-    <row r="924">
+    <row r="924" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B924" s="5"/>
       <c r="C924" s="5"/>
     </row>
-    <row r="925">
+    <row r="925" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B925" s="5"/>
       <c r="C925" s="5"/>
     </row>
-    <row r="926">
+    <row r="926" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B926" s="5"/>
       <c r="C926" s="5"/>
     </row>
-    <row r="927">
+    <row r="927" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B927" s="5"/>
       <c r="C927" s="5"/>
     </row>
-    <row r="928">
+    <row r="928" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B928" s="5"/>
       <c r="C928" s="5"/>
     </row>
-    <row r="929">
+    <row r="929" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B929" s="5"/>
       <c r="C929" s="5"/>
     </row>
-    <row r="930">
+    <row r="930" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B930" s="5"/>
       <c r="C930" s="5"/>
     </row>
-    <row r="931">
+    <row r="931" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B931" s="5"/>
       <c r="C931" s="5"/>
     </row>
-    <row r="932">
+    <row r="932" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B932" s="5"/>
       <c r="C932" s="5"/>
     </row>
-    <row r="933">
+    <row r="933" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B933" s="5"/>
       <c r="C933" s="5"/>
     </row>
-    <row r="934">
+    <row r="934" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B934" s="5"/>
       <c r="C934" s="5"/>
     </row>
-    <row r="935">
+    <row r="935" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B935" s="5"/>
       <c r="C935" s="5"/>
     </row>
-    <row r="936">
+    <row r="936" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B936" s="5"/>
       <c r="C936" s="5"/>
     </row>
-    <row r="937">
+    <row r="937" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B937" s="5"/>
       <c r="C937" s="5"/>
     </row>
-    <row r="938">
+    <row r="938" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B938" s="5"/>
       <c r="C938" s="5"/>
     </row>
-    <row r="939">
+    <row r="939" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B939" s="5"/>
       <c r="C939" s="5"/>
     </row>
-    <row r="940">
+    <row r="940" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B940" s="5"/>
       <c r="C940" s="5"/>
     </row>
-    <row r="941">
+    <row r="941" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B941" s="5"/>
       <c r="C941" s="5"/>
     </row>
-    <row r="942">
+    <row r="942" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B942" s="5"/>
       <c r="C942" s="5"/>
     </row>
-    <row r="943">
+    <row r="943" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B943" s="5"/>
       <c r="C943" s="5"/>
     </row>
-    <row r="944">
+    <row r="944" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B944" s="5"/>
       <c r="C944" s="5"/>
     </row>
-    <row r="945">
+    <row r="945" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B945" s="5"/>
       <c r="C945" s="5"/>
     </row>
-    <row r="946">
+    <row r="946" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B946" s="5"/>
       <c r="C946" s="5"/>
     </row>
-    <row r="947">
+    <row r="947" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B947" s="5"/>
       <c r="C947" s="5"/>
     </row>
-    <row r="948">
+    <row r="948" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B948" s="5"/>
       <c r="C948" s="5"/>
     </row>
-    <row r="949">
+    <row r="949" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B949" s="5"/>
       <c r="C949" s="5"/>
     </row>
-    <row r="950">
+    <row r="950" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B950" s="5"/>
       <c r="C950" s="5"/>
     </row>
-    <row r="951">
+    <row r="951" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B951" s="5"/>
       <c r="C951" s="5"/>
     </row>
-    <row r="952">
+    <row r="952" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B952" s="5"/>
       <c r="C952" s="5"/>
     </row>
-    <row r="953">
+    <row r="953" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B953" s="5"/>
       <c r="C953" s="5"/>
     </row>
-    <row r="954">
+    <row r="954" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B954" s="5"/>
       <c r="C954" s="5"/>
     </row>
-    <row r="955">
+    <row r="955" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B955" s="5"/>
       <c r="C955" s="5"/>
     </row>
-    <row r="956">
+    <row r="956" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B956" s="5"/>
       <c r="C956" s="5"/>
     </row>
-    <row r="957">
+    <row r="957" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B957" s="5"/>
       <c r="C957" s="5"/>
     </row>
-    <row r="958">
+    <row r="958" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B958" s="5"/>
       <c r="C958" s="5"/>
     </row>
-    <row r="959">
+    <row r="959" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B959" s="5"/>
       <c r="C959" s="5"/>
     </row>
-    <row r="960">
+    <row r="960" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B960" s="5"/>
       <c r="C960" s="5"/>
     </row>
-    <row r="961">
+    <row r="961" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B961" s="5"/>
       <c r="C961" s="5"/>
     </row>
-    <row r="962">
+    <row r="962" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B962" s="5"/>
       <c r="C962" s="5"/>
     </row>
-    <row r="963">
+    <row r="963" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B963" s="5"/>
       <c r="C963" s="5"/>
     </row>
-    <row r="964">
+    <row r="964" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B964" s="5"/>
       <c r="C964" s="5"/>
     </row>
-    <row r="965">
+    <row r="965" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B965" s="5"/>
       <c r="C965" s="5"/>
     </row>
-    <row r="966">
+    <row r="966" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B966" s="5"/>
       <c r="C966" s="5"/>
     </row>
-    <row r="967">
+    <row r="967" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B967" s="5"/>
       <c r="C967" s="5"/>
     </row>
-    <row r="968">
+    <row r="968" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B968" s="5"/>
       <c r="C968" s="5"/>
     </row>
-    <row r="969">
+    <row r="969" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B969" s="5"/>
       <c r="C969" s="5"/>
     </row>
-    <row r="970">
+    <row r="970" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B970" s="5"/>
       <c r="C970" s="5"/>
     </row>
-    <row r="971">
+    <row r="971" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B971" s="5"/>
       <c r="C971" s="5"/>
     </row>
-    <row r="972">
+    <row r="972" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B972" s="5"/>
       <c r="C972" s="5"/>
     </row>
-    <row r="973">
+    <row r="973" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B973" s="5"/>
       <c r="C973" s="5"/>
     </row>
-    <row r="974">
+    <row r="974" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B974" s="5"/>
       <c r="C974" s="5"/>
     </row>
-    <row r="975">
+    <row r="975" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B975" s="5"/>
       <c r="C975" s="5"/>
     </row>
-    <row r="976">
+    <row r="976" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B976" s="5"/>
       <c r="C976" s="5"/>
     </row>
-    <row r="977">
+    <row r="977" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B977" s="5"/>
       <c r="C977" s="5"/>
     </row>
-    <row r="978">
+    <row r="978" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B978" s="5"/>
       <c r="C978" s="5"/>
     </row>
-    <row r="979">
+    <row r="979" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B979" s="5"/>
       <c r="C979" s="5"/>
     </row>
-    <row r="980">
+    <row r="980" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B980" s="5"/>
       <c r="C980" s="5"/>
     </row>
-    <row r="981">
+    <row r="981" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B981" s="5"/>
       <c r="C981" s="5"/>
     </row>
-    <row r="982">
+    <row r="982" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B982" s="5"/>
       <c r="C982" s="5"/>
     </row>
-    <row r="983">
+    <row r="983" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B983" s="5"/>
       <c r="C983" s="5"/>
     </row>
-    <row r="984">
+    <row r="984" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B984" s="5"/>
       <c r="C984" s="5"/>
     </row>
-    <row r="985">
+    <row r="985" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B985" s="5"/>
       <c r="C985" s="5"/>
     </row>
-    <row r="986">
+    <row r="986" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B986" s="5"/>
       <c r="C986" s="5"/>
     </row>
-    <row r="987">
+    <row r="987" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B987" s="5"/>
       <c r="C987" s="5"/>
     </row>
-    <row r="988">
+    <row r="988" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B988" s="5"/>
       <c r="C988" s="5"/>
     </row>
-    <row r="989">
+    <row r="989" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B989" s="5"/>
       <c r="C989" s="5"/>
     </row>
-    <row r="990">
+    <row r="990" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B990" s="5"/>
       <c r="C990" s="5"/>
     </row>
-    <row r="991">
+    <row r="991" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B991" s="5"/>
       <c r="C991" s="5"/>
     </row>
-    <row r="992">
+    <row r="992" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B992" s="5"/>
       <c r="C992" s="5"/>
     </row>
-    <row r="993">
+    <row r="993" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B993" s="5"/>
       <c r="C993" s="5"/>
     </row>
-    <row r="994">
+    <row r="994" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B994" s="5"/>
       <c r="C994" s="5"/>
     </row>
-    <row r="995">
+    <row r="995" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B995" s="5"/>
       <c r="C995" s="5"/>
     </row>
-    <row r="996">
+    <row r="996" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B996" s="5"/>
       <c r="C996" s="5"/>
     </row>
-    <row r="997">
+    <row r="997" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B997" s="5"/>
       <c r="C997" s="5"/>
     </row>
-    <row r="998">
+    <row r="998" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B998" s="5"/>
       <c r="C998" s="5"/>
     </row>
-    <row r="999">
+    <row r="999" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B999" s="5"/>
       <c r="C999" s="5"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="2:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B1000" s="5"/>
       <c r="C1000" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>0.0</v>
+        <v>0</v>
       </c>
       <c r="G3" s="1">
-        <v>0.0</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col customWidth="1" min="2" max="3" width="26.88"/>
-    <col customWidth="1" min="4" max="4" width="29.75"/>
+    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="9"/>
+      <c r="D1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="D3" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4">
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>64</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="D5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>67</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7">
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="D7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>72</v>
-      </c>
       <c r="E7" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10">
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="11">
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="E11" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="D12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>82</v>
+      <c r="B13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>81</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="E14" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>57</v>
+      <c r="B15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -5438,27 +5697,27 @@
     <mergeCell ref="B1:C1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B2"/>
-    <hyperlink r:id="rId2" ref="C2"/>
-    <hyperlink r:id="rId3" ref="D2"/>
-    <hyperlink r:id="rId4" ref="B3"/>
-    <hyperlink r:id="rId5" ref="C3"/>
-    <hyperlink r:id="rId6" ref="D3"/>
-    <hyperlink r:id="rId7" ref="B4"/>
-    <hyperlink r:id="rId8" ref="C4"/>
-    <hyperlink r:id="rId9" ref="D4"/>
-    <hyperlink r:id="rId10" ref="D5"/>
-    <hyperlink r:id="rId11" ref="D7"/>
-    <hyperlink r:id="rId12" ref="D8"/>
-    <hyperlink r:id="rId13" ref="B11"/>
-    <hyperlink r:id="rId14" ref="C11"/>
-    <hyperlink r:id="rId15" ref="D11"/>
-    <hyperlink r:id="rId16" ref="D12"/>
-    <hyperlink r:id="rId17" ref="D13"/>
-    <hyperlink r:id="rId18" ref="B14"/>
-    <hyperlink r:id="rId19" ref="C14"/>
-    <hyperlink r:id="rId20" ref="D14"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="B4" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="C4" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D8" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C11" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="D12" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="B14" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
+    <hyperlink ref="C14" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
+    <hyperlink ref="D14" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
   </hyperlinks>
-  <drawing r:id="rId21"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{602F28E8-244B-2A46-8BD3-F80EC7909629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D299F1-3EEE-954A-A90C-AC9587653D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -176,54 +176,27 @@
     <t>JG</t>
   </si>
   <si>
-    <t>Coordinantes</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
     <t>Certainty</t>
   </si>
   <si>
-    <t>31.916667°N</t>
-  </si>
-  <si>
-    <t>35.288333°E</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Et-Tell</t>
   </si>
   <si>
     <t>C</t>
   </si>
   <si>
-    <t>32°05′N</t>
-  </si>
-  <si>
-    <t>34°50′E</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Bnei_Brak</t>
   </si>
   <si>
     <t>KC</t>
   </si>
   <si>
-    <t>31°57′14″N</t>
-  </si>
-  <si>
-    <t>34°55′30″E</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Ben_Shemen</t>
   </si>
   <si>
-    <t>31° 33' 26" N</t>
-  </si>
-  <si>
-    <t>35° 2' 1" E</t>
-  </si>
-  <si>
     <t>https://www.jstor.org/stable/pdf/26563119.pdf?refreqid=excelsior%3A2d7623f04dc773a1dfb4b33eb1feaf22&amp;ab_segments=&amp;origin=&amp;initiator=&amp;acceptTC=1</t>
   </si>
   <si>
@@ -233,51 +206,21 @@
     <t>UC</t>
   </si>
   <si>
-    <t>31.37124 N</t>
-  </si>
-  <si>
-    <t>34.86489 E</t>
-  </si>
-  <si>
     <t>https://www.openbible.info/geo/modern/mee9587/khirbet-umm-er-rammamin</t>
   </si>
   <si>
-    <t>32° 8' 34" N</t>
-  </si>
-  <si>
-    <t>35° 14' 8" E</t>
-  </si>
-  <si>
     <t>https://www.mindat.org/feature-281985.html</t>
   </si>
   <si>
-    <t>32.913537°N</t>
-  </si>
-  <si>
-    <t>35.150565°E</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Horbat_%27Uza</t>
   </si>
   <si>
-    <t>32° 59' 37" N</t>
-  </si>
-  <si>
-    <t>35° 30' 54"</t>
-  </si>
-  <si>
     <t>https://mapcarta.com/30739794</t>
   </si>
   <si>
     <t>http://www.hadashot-esi.org.il/report_detail_eng.aspx?id=25880&amp;mag_id=128</t>
   </si>
   <si>
-    <t>31°50′26″N</t>
-  </si>
-  <si>
-    <t>34°59′30″E</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/Imwas</t>
   </si>
   <si>
@@ -300,13 +243,22 @@
   </si>
   <si>
     <t>Hebrew</t>
+  </si>
+  <si>
+    <t>https://mapcarta.com/12908914</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Long (E) </t>
+  </si>
+  <si>
+    <t>Lat (N)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -346,6 +298,33 @@
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -364,10 +343,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -378,15 +358,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -606,7 +587,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -794,46 +775,46 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1051,7 +1032,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B25" s="1">
         <v>762</v>
@@ -1059,7 +1040,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B26" s="1">
         <v>763</v>
@@ -1067,7 +1048,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B27" s="1">
         <v>764</v>
@@ -1075,7 +1056,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B28" s="1">
         <v>765</v>
@@ -1083,7 +1064,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B29" s="1">
         <v>766</v>
@@ -1091,7 +1072,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1">
         <v>767</v>
@@ -1099,7 +1080,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B31" s="1">
         <v>768</v>
@@ -1107,7 +1088,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B32" s="1">
         <v>769</v>
@@ -1115,7 +1096,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B33" s="1">
         <v>770</v>
@@ -1123,7 +1104,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B34" s="1">
         <v>771</v>
@@ -1131,7 +1112,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B35" s="1">
         <v>772</v>
@@ -1139,7 +1120,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B36" s="1">
         <v>773</v>
@@ -1147,7 +1128,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B37" s="1">
         <v>774</v>
@@ -1334,7 +1315,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="B15" s="5">
         <v>7</v>
@@ -1345,7 +1326,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B16" s="5">
         <v>9</v>
@@ -5313,7 +5294,7 @@
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>91</v>
+        <v>72</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>45</v>
@@ -5379,7 +5360,7 @@
     </row>
     <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -5410,10 +5391,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5422,301 +5403,298 @@
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="9"/>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="6">
+        <v>31.916667</v>
+      </c>
+      <c r="C2" s="6">
+        <v>35.288333000000002</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>58</v>
+      <c r="B3" s="6">
+        <v>32.083333000000003</v>
+      </c>
+      <c r="C3" s="6">
+        <v>34.833333000000003</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>62</v>
+      <c r="B4" s="6">
+        <v>31.953889</v>
+      </c>
+      <c r="C4" s="6">
+        <v>34.924999999999997</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>65</v>
+      <c r="B5" s="6">
+        <v>31.557259999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>35.033830000000002</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>70</v>
+      <c r="B7" s="8">
+        <v>31.37124</v>
+      </c>
+      <c r="C7" s="6">
+        <v>34.864890000000003</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>73</v>
+      <c r="B8" s="8">
+        <v>32.143000000000001</v>
+      </c>
+      <c r="C8" s="8">
+        <v>35.235779999999998</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>76</v>
+      <c r="B11" s="6">
+        <v>32.913536999999998</v>
+      </c>
+      <c r="C11" s="6">
+        <v>35.150565</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>79</v>
+      <c r="B12" s="6">
+        <v>32.993670000000002</v>
+      </c>
+      <c r="C12" s="6">
+        <v>35.514969999999998</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>83</v>
+      <c r="B14" s="6">
+        <v>31.840555999999999</v>
+      </c>
+      <c r="C14" s="6">
+        <v>34.991667</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="B2" r:id="rId1" display="31.916667°N" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" display="35.288333°E" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
     <hyperlink ref="D2" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
-    <hyperlink ref="B3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
-    <hyperlink ref="C3" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
-    <hyperlink ref="D3" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
-    <hyperlink ref="B4" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
-    <hyperlink ref="C4" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
-    <hyperlink ref="D4" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
-    <hyperlink ref="D5" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
-    <hyperlink ref="D7" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
-    <hyperlink ref="D8" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
-    <hyperlink ref="B11" r:id="rId13" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
-    <hyperlink ref="C11" r:id="rId14" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
-    <hyperlink ref="D11" r:id="rId15" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
-    <hyperlink ref="D12" r:id="rId16" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
-    <hyperlink ref="D13" r:id="rId17" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
-    <hyperlink ref="B14" r:id="rId18" xr:uid="{00000000-0004-0000-0400-000011000000}"/>
-    <hyperlink ref="C14" r:id="rId19" xr:uid="{00000000-0004-0000-0400-000012000000}"/>
-    <hyperlink ref="D14" r:id="rId20" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D4" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="D5" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="D8" r:id="rId8" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
+    <hyperlink ref="D11" r:id="rId9" xr:uid="{00000000-0004-0000-0400-00000E000000}"/>
+    <hyperlink ref="D12" r:id="rId10" xr:uid="{00000000-0004-0000-0400-00000F000000}"/>
+    <hyperlink ref="D13" r:id="rId11" xr:uid="{00000000-0004-0000-0400-000010000000}"/>
+    <hyperlink ref="D14" r:id="rId12" xr:uid="{00000000-0004-0000-0400-000013000000}"/>
+    <hyperlink ref="B11" r:id="rId13" display="32.913537°N" xr:uid="{00000000-0004-0000-0400-00000C000000}"/>
+    <hyperlink ref="C11" r:id="rId14" display="35.150565°E" xr:uid="{00000000-0004-0000-0400-00000D000000}"/>
+    <hyperlink ref="F5" r:id="rId15" xr:uid="{B4C1DD84-1033-AC49-932F-1A1111531F89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D299F1-3EEE-954A-A90C-AC9587653D18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6080D3-0664-104D-9FEE-9F6DEB7B7FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15880" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>Lat (N)</t>
+  </si>
+  <si>
+    <t>IAA Reports 7: Jericho</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -362,8 +365,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -587,7 +589,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5391,10 +5393,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="225" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="225" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5407,7 +5409,7 @@
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C1" s="10" t="s">
@@ -5487,7 +5489,7 @@
       <c r="E5" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -5648,35 +5650,38 @@
       <c r="A15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D15" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>59</v>
+      <c r="B15" s="8">
+        <v>31.865844263673001</v>
+      </c>
+      <c r="C15" s="6">
+        <v>35.431491499750599</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="B16" s="8">
+        <v>31.865844263673001</v>
+      </c>
+      <c r="C16" s="6">
+        <v>35.431491499750599</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="10"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6080D3-0664-104D-9FEE-9F6DEB7B7FF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E5AAA-FFBD-6646-94A1-1708F63F67A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="111">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -255,13 +255,115 @@
   </si>
   <si>
     <t>IAA Reports 7: Jericho</t>
+  </si>
+  <si>
+    <t>tg016</t>
+  </si>
+  <si>
+    <t>tg017</t>
+  </si>
+  <si>
+    <t>tg018</t>
+  </si>
+  <si>
+    <t>Jericho, Tomb D1</t>
+  </si>
+  <si>
+    <t>Jericho, Tomb D13</t>
+  </si>
+  <si>
+    <t>Jericho, Tomb H</t>
+  </si>
+  <si>
+    <t>tg019</t>
+  </si>
+  <si>
+    <t>tg020</t>
+  </si>
+  <si>
+    <t>tg021</t>
+  </si>
+  <si>
+    <t>tg022</t>
+  </si>
+  <si>
+    <t>tg023</t>
+  </si>
+  <si>
+    <t>tg024</t>
+  </si>
+  <si>
+    <t>tg025</t>
+  </si>
+  <si>
+    <t>tg026</t>
+  </si>
+  <si>
+    <t>Jerusalem, Abu Dis</t>
+  </si>
+  <si>
+    <t>E. Damati</t>
+  </si>
+  <si>
+    <t>Jerusalem, Abu Tor (a)</t>
+  </si>
+  <si>
+    <t>Jerusalem, Abu Tor (b)</t>
+  </si>
+  <si>
+    <t>Jerusalem, Abu Tor (c)</t>
+  </si>
+  <si>
+    <t>E. I. Sukenik</t>
+  </si>
+  <si>
+    <t>S. A. S. Husseini</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Abu_Tor</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Abu_Dis</t>
+  </si>
+  <si>
+    <t>Jerusalem, Ammunition Hill</t>
+  </si>
+  <si>
+    <t>S. Gudovitch</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Battle_of_Ammunition_Hill</t>
+  </si>
+  <si>
+    <t>Jerusalem, Arnona</t>
+  </si>
+  <si>
+    <t>S. Ben Arieh</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Arnona</t>
+  </si>
+  <si>
+    <t>Jerusalem, East Talpiyot (a)</t>
+  </si>
+  <si>
+    <t>J. Gath</t>
+  </si>
+  <si>
+    <t>Jerusalem, East Talpiyot (b)</t>
+  </si>
+  <si>
+    <t> 35.235</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/East_Talpiot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -328,6 +430,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -350,7 +466,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
@@ -367,6 +483,8 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -586,17 +704,17 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.6640625" customWidth="1"/>
     <col min="2" max="2" width="31.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -817,6 +935,160 @@
       </c>
       <c r="C20" s="1" t="s">
         <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -829,10 +1101,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B1048576"/>
+  <dimension ref="A1:B130"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1136,8 +1408,749 @@
         <v>774</v>
       </c>
     </row>
-    <row r="1048576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1048576" s="1"/>
+    <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="1">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="1">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="1">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" s="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="1">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B43" s="1">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" t="s">
+        <v>79</v>
+      </c>
+      <c r="B45" s="1">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="1">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" t="s">
+        <v>79</v>
+      </c>
+      <c r="B48" s="1">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" t="s">
+        <v>79</v>
+      </c>
+      <c r="B49" s="1">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50" s="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51" s="1">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" t="s">
+        <v>79</v>
+      </c>
+      <c r="B52" s="1">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" t="s">
+        <v>79</v>
+      </c>
+      <c r="B53" s="1">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" t="s">
+        <v>79</v>
+      </c>
+      <c r="B54" s="1">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" t="s">
+        <v>79</v>
+      </c>
+      <c r="B55" s="1">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" s="1">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B57" s="1">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" t="s">
+        <v>79</v>
+      </c>
+      <c r="B58" s="1">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="1">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" t="s">
+        <v>79</v>
+      </c>
+      <c r="B60" s="1">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="1">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" t="s">
+        <v>79</v>
+      </c>
+      <c r="B63" s="1">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" t="s">
+        <v>79</v>
+      </c>
+      <c r="B64" s="1">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" t="s">
+        <v>79</v>
+      </c>
+      <c r="B65" s="1">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="1">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="1">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" t="s">
+        <v>83</v>
+      </c>
+      <c r="B68" s="1">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" t="s">
+        <v>86</v>
+      </c>
+      <c r="B77" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" t="s">
+        <v>86</v>
+      </c>
+      <c r="B78" s="1">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" t="s">
+        <v>86</v>
+      </c>
+      <c r="B79" s="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B80" s="9">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B81" s="9">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82" s="9">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="9">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84" s="9">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="9">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B86" s="9">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B87" s="9">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B89" s="9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B90" s="9">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B91" s="9">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B92" s="9">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="9">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B94" s="9">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B95" s="9">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B96" s="9">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="9">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" s="9">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" s="9">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" s="9">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" s="9">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B102" s="9">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B103" s="9">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104" s="9">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B105" s="9">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B106" s="9">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B107" s="9">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B108" s="9">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B109" s="9">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B110" s="9">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A111" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B111" s="9">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A112" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B112" s="9">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A113" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B113" s="9">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A114" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="9">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A115" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B115" s="9">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A116" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B116" s="9">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A117" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B117" s="9">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A118" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B118" s="9">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A119" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B119" s="9">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A120" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B120" s="9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A121" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B121" s="9">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A122" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B122" s="9">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A123" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B123" s="9">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B124" s="9">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B125" s="9">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B126" s="9">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B127" s="9">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B128" s="9">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B129" s="9">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B130" s="9">
+        <v>735</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -1153,7 +2166,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1337,67 +2350,144 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-    </row>
-    <row r="18" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-    </row>
-    <row r="19" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-    </row>
-    <row r="20" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-    </row>
-    <row r="21" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-    </row>
-    <row r="22" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-    </row>
-    <row r="23" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-    </row>
-    <row r="24" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-    </row>
-    <row r="25" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-    </row>
-    <row r="26" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-    </row>
-    <row r="27" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B27" s="5"/>
-      <c r="C27" s="5"/>
-    </row>
-    <row r="28" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="5">
+        <v>6</v>
+      </c>
+      <c r="C17" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="5">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="5">
+        <v>23</v>
+      </c>
+      <c r="C19" s="5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="5">
+        <v>3</v>
+      </c>
+      <c r="C20" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="5">
+        <v>8</v>
+      </c>
+      <c r="C21" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="5">
+        <v>2</v>
+      </c>
+      <c r="C22" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5">
+        <v>3</v>
+      </c>
+      <c r="C23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="5">
+        <v>20</v>
+      </c>
+      <c r="C24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="5">
+        <v>4</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="5">
+        <v>10</v>
+      </c>
+      <c r="C26" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="5">
+        <v>24</v>
+      </c>
+      <c r="C27" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="5"/>
       <c r="C28" s="5"/>
     </row>
-    <row r="29" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="5"/>
       <c r="C29" s="5"/>
     </row>
-    <row r="30" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
-    <row r="31" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="5"/>
       <c r="C31" s="5"/>
     </row>
-    <row r="32" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="5"/>
       <c r="C32" s="5"/>
     </row>
@@ -5283,10 +6373,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5380,6 +6470,190 @@
         <v>0</v>
       </c>
       <c r="G4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="1">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="9">
+        <v>1</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0</v>
+      </c>
+      <c r="D9" s="9">
+        <v>0</v>
+      </c>
+      <c r="E9" s="9">
+        <v>0</v>
+      </c>
+      <c r="F9" s="9">
+        <v>0</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="9">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>0</v>
+      </c>
+      <c r="F11" s="9">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4</v>
+      </c>
+      <c r="C12" s="9">
+        <v>2</v>
+      </c>
+      <c r="D12" s="9">
+        <v>0</v>
+      </c>
+      <c r="E12" s="9">
+        <v>0</v>
+      </c>
+      <c r="F12" s="9">
+        <v>0</v>
+      </c>
+      <c r="G12" s="9">
         <v>0</v>
       </c>
     </row>
@@ -5393,10 +6667,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="225" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="225" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -5680,10 +6954,195 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="10"/>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="8">
+        <v>31.865844263673001</v>
+      </c>
+      <c r="C17" s="6">
+        <v>35.431491499750599</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="8">
+        <v>31.865844263673001</v>
+      </c>
+      <c r="C18" s="6">
+        <v>35.431491499750599</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B19" s="8">
+        <v>31.865844263673001</v>
+      </c>
+      <c r="C19" s="6">
+        <v>35.431491499750599</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="8">
+        <v>31.762499999999999</v>
+      </c>
+      <c r="C20" s="8">
+        <v>35.265833000000001</v>
+      </c>
+      <c r="D20" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="8">
+        <v>31.763639000000001</v>
+      </c>
+      <c r="C21" s="8">
+        <v>35.232638999999999</v>
+      </c>
+      <c r="D21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="8">
+        <v>31.763639000000001</v>
+      </c>
+      <c r="C22" s="8">
+        <v>35.232638999999999</v>
+      </c>
+      <c r="D22" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="8">
+        <v>31.763639000000001</v>
+      </c>
+      <c r="C23" s="8">
+        <v>35.232638999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="12">
+        <v>31.799444000000001</v>
+      </c>
+      <c r="C24">
+        <v>35.228056000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="12">
+        <v>31.75</v>
+      </c>
+      <c r="C25">
+        <v>35.22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>105</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="12">
+        <v>31.75</v>
+      </c>
+      <c r="C26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D26" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B27" s="12">
+        <v>31.75</v>
+      </c>
+      <c r="C27" t="s">
+        <v>109</v>
+      </c>
+      <c r="D27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>55</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="6" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" display="31.916667°N" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
     <hyperlink ref="C2" r:id="rId2" display="35.288333°E" xr:uid="{00000000-0004-0000-0400-000001000000}"/>

--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44E5AAA-FFBD-6646-94A1-1708F63F67A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B699CA4C-B5FB-EF47-8B7F-1030F43B4884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="137">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -357,6 +357,84 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/East_Talpiot</t>
+  </si>
+  <si>
+    <t>tg027</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (a)</t>
+  </si>
+  <si>
+    <t>E. Oren</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/French_Hill_(settlement)</t>
+  </si>
+  <si>
+    <t>tg028</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (b)</t>
+  </si>
+  <si>
+    <t>A. Mazar</t>
+  </si>
+  <si>
+    <t>tg029</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (c)</t>
+  </si>
+  <si>
+    <t>tg030</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (d)</t>
+  </si>
+  <si>
+    <t>tg031</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (e)</t>
+  </si>
+  <si>
+    <t>tg032</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (f)</t>
+  </si>
+  <si>
+    <t>tg033</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (g)</t>
+  </si>
+  <si>
+    <t>tg034</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (h)</t>
+  </si>
+  <si>
+    <t>tg035</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (i)</t>
+  </si>
+  <si>
+    <t>J. F. Strange</t>
+  </si>
+  <si>
+    <t>tg036</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (j)</t>
+  </si>
+  <si>
+    <t>tg037</t>
+  </si>
+  <si>
+    <t>Jerusalem, French Hill (k)</t>
   </si>
 </sst>
 </file>
@@ -704,10 +782,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C34"/>
+  <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1091,6 +1169,127 @@
         <v>17</v>
       </c>
     </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="C41" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C44" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>132</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1101,10 +1300,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B130"/>
+  <dimension ref="A1:B173"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2150,6 +2349,350 @@
       </c>
       <c r="B130" s="9">
         <v>735</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B131" s="9">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B132" s="9">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B133" s="9">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B134" s="9">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B135" s="9">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B136" s="9">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B137" s="9">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B138" s="9">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B139" s="9">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B140" s="9">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B141" s="9">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B142" s="9">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B143" s="9">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B144" s="9">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B145" s="9">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B146" s="9">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B147" s="9">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B148" s="9">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B149" s="9">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B150" s="9">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B151" s="9">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B152" s="9">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B153" s="9">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B154" s="9">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="9">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B156" s="9">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B157" s="9">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B158" s="9">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B159" s="9">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B160" s="9">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B161" s="9">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="B162" s="9">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B163" s="9">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B164" s="9">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B165" s="9">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B166" s="9">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B167" s="9">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B168" s="9">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B169" s="9">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B170" s="9">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B171" s="9">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B172" s="9">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="B173" s="9">
+        <v>603</v>
       </c>
     </row>
   </sheetData>
@@ -2165,8 +2708,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2472,86 +3015,163 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
+      <c r="A28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="5">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
+      <c r="A29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="5">
+        <v>4</v>
+      </c>
+      <c r="C29" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
+      <c r="A30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="5">
+        <v>4</v>
+      </c>
+      <c r="C30" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
+      <c r="A31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="5">
+        <v>7</v>
+      </c>
+      <c r="C31" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="5">
+        <v>3</v>
+      </c>
+      <c r="C32" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="5">
+        <v>3</v>
+      </c>
+      <c r="C33" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="5">
+        <v>7</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="5">
+        <v>2</v>
+      </c>
+      <c r="C35" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="5">
+        <v>7</v>
+      </c>
+      <c r="C36" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="5">
+        <v>2</v>
+      </c>
+      <c r="C37" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="5">
+        <v>2</v>
+      </c>
+      <c r="C38" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B39" s="5"/>
       <c r="C39" s="5"/>
     </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
     </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B41" s="5"/>
       <c r="C41" s="5"/>
     </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
     </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
     </row>
-    <row r="44" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
     </row>
-    <row r="45" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
     </row>
-    <row r="46" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
     </row>
-    <row r="47" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
     </row>
-    <row r="48" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B48" s="5"/>
       <c r="C48" s="5"/>
     </row>
@@ -6373,10 +6993,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6655,6 +7275,75 @@
       </c>
       <c r="G12" s="9">
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B13" s="9">
+        <v>1</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0</v>
+      </c>
+      <c r="D13" s="9">
+        <v>0</v>
+      </c>
+      <c r="E13" s="9">
+        <v>0</v>
+      </c>
+      <c r="F13" s="9">
+        <v>0</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B14" s="9">
+        <v>1</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0</v>
+      </c>
+      <c r="D14" s="9">
+        <v>0</v>
+      </c>
+      <c r="E14" s="9">
+        <v>0</v>
+      </c>
+      <c r="F14" s="9">
+        <v>0</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B15" s="9">
+        <v>1</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="9">
+        <v>0</v>
+      </c>
+      <c r="E15" s="9">
+        <v>0</v>
+      </c>
+      <c r="F15" s="9">
+        <v>0</v>
+      </c>
+      <c r="G15" s="9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -6667,10 +7356,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="225" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="B25" zoomScale="225" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7138,6 +7827,193 @@
         <v>110</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="B28" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C28">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D28" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="B29" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C29">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D29" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="B30" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C30">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D30" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B31" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C31">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D31" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C32">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D32" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C33">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C34">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="B35" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C35" s="10">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>130</v>
+      </c>
+      <c r="B36" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C36" s="10">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D36" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="B37" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C37" s="10">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B38" s="12">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C38" s="10">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D38" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="10" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B699CA4C-B5FB-EF47-8B7F-1030F43B4884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7164CE9-C315-B04A-916F-D34F122B1D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="141">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -435,6 +435,18 @@
   </si>
   <si>
     <t>Jerusalem, French Hill (k)</t>
+  </si>
+  <si>
+    <t>tg038</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (a)</t>
+  </si>
+  <si>
+    <t>V. Tzaferis</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Givat_HaMivtar</t>
   </si>
 </sst>
 </file>
@@ -452,33 +464,39 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF303030"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -486,6 +504,7 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -782,10 +801,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C45"/>
+  <dimension ref="A1:C46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1290,6 +1309,17 @@
         <v>132</v>
       </c>
     </row>
+    <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1300,10 +1330,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B173"/>
+  <dimension ref="A1:B181"/>
   <sheetViews>
-    <sheetView topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173"/>
+    <sheetView topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="E174" sqref="E174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2693,6 +2723,70 @@
       </c>
       <c r="B173" s="9">
         <v>603</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B174" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A175" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B175" s="1">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A176" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B176" s="1">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A177" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B177" s="1">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B178" s="1">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B179" s="1">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B180" s="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="B181" s="1">
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -2709,7 +2803,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3136,8 +3230,15 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
+      <c r="A39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="5">
+        <v>8</v>
+      </c>
+      <c r="C39" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B40" s="5"/>
@@ -6993,10 +7094,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G15"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7344,6 +7445,29 @@
       </c>
       <c r="G15" s="9">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0</v>
+      </c>
+      <c r="C16" s="1">
+        <v>5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -7356,10 +7480,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F38"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView topLeftCell="B25" zoomScale="225" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E38"/>
+    <sheetView topLeftCell="A32" zoomScale="225" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8014,6 +8138,23 @@
         <v>114</v>
       </c>
       <c r="E38" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B39" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C39">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D39" t="s">
+        <v>140</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7164CE9-C315-B04A-916F-D34F122B1D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4AA49-2EEE-9C4D-B0B9-BA31D6F1F310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="169">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -447,6 +447,90 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Givat_HaMivtar</t>
+  </si>
+  <si>
+    <t>tg039</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (b)</t>
+  </si>
+  <si>
+    <t>tg040</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (c)</t>
+  </si>
+  <si>
+    <t>tg041</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (d)</t>
+  </si>
+  <si>
+    <t>D. Bahat</t>
+  </si>
+  <si>
+    <t>tg042</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (e)</t>
+  </si>
+  <si>
+    <t>tg043</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (f)</t>
+  </si>
+  <si>
+    <t>tg044</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (g)</t>
+  </si>
+  <si>
+    <t>tg045</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (h)</t>
+  </si>
+  <si>
+    <t>F. Vitto</t>
+  </si>
+  <si>
+    <t>tg046</t>
+  </si>
+  <si>
+    <t>Giv'at Hamivtar (and vicinity) (i)</t>
+  </si>
+  <si>
+    <t>tg047</t>
+  </si>
+  <si>
+    <t>Giv'at Mordekhai</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Givat_Mordechai</t>
+  </si>
+  <si>
+    <t>tg048</t>
+  </si>
+  <si>
+    <t>Giv'at Ram</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Givat_Ram</t>
+  </si>
+  <si>
+    <t>tg049</t>
+  </si>
+  <si>
+    <t>Ḥizmeh</t>
+  </si>
+  <si>
+    <t>N. Avigad</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Hizma</t>
   </si>
 </sst>
 </file>
@@ -801,10 +885,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1320,6 +1404,127 @@
         <v>139</v>
       </c>
     </row>
+    <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1330,10 +1535,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:B181"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView topLeftCell="A147" workbookViewId="0">
-      <selection activeCell="E174" sqref="E174"/>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="B222" sqref="B222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2749,7 +2954,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="10" t="s">
         <v>137</v>
       </c>
@@ -2757,7 +2962,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="10" t="s">
         <v>137</v>
       </c>
@@ -2765,7 +2970,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="10" t="s">
         <v>137</v>
       </c>
@@ -2773,7 +2978,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="10" t="s">
         <v>137</v>
       </c>
@@ -2781,12 +2986,341 @@
         <v>222</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="10" t="s">
         <v>137</v>
       </c>
       <c r="B181" s="1">
         <v>223</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B182" s="1">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="B183" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B184" s="1">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B185" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B186" s="1">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A187" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="B187" s="1">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A188" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B188" s="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A189" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B189" s="1">
+        <v>364</v>
+      </c>
+      <c r="F189" s="10"/>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A190" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B190" s="1">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A191" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B191" s="1">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A192" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B192" s="1">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A193" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B193" s="1">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A194" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B194" s="1">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A195" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B195" s="1">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A196" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="B196" s="1">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A197" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B197" s="1">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A198" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B198" s="1">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A199" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B199" s="1">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A200" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B200" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A201" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B201" s="1">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A202" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B202" s="1">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A203" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B203" s="1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A204" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B204" s="1">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A205" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B205" s="1">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B206" s="1">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B207" s="1">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B208" s="1">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B209" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B210" s="1">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B211" s="1">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="B212" s="1">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B213" s="1">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B214" s="1">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A215" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="B215" s="1">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A216" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B216" s="1">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A217" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B217" s="1">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A218" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B218" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="B219" s="1">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B220" s="1">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B221" s="1">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B222" s="1">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -2802,8 +3336,8 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -3241,102 +3775,179 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
+      <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="5">
+        <v>2</v>
+      </c>
+      <c r="C40" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
+      <c r="A41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="5">
+        <v>1</v>
+      </c>
+      <c r="C41" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
+      <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="5">
+        <v>3</v>
+      </c>
+      <c r="C42" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
+      <c r="A43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="5">
+        <v>9</v>
+      </c>
+      <c r="C43" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
+      <c r="A44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="5">
+        <v>2</v>
+      </c>
+      <c r="C44" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="A45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="5">
+        <v>16</v>
+      </c>
+      <c r="C45" s="5">
+        <v>6</v>
+      </c>
     </row>
     <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="A46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="5">
+        <v>3</v>
+      </c>
+      <c r="C46" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
+      <c r="A47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="5">
+        <v>1</v>
+      </c>
+      <c r="C47" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-    </row>
-    <row r="49" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-    </row>
-    <row r="50" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-    </row>
-    <row r="51" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="5">
+        <v>4</v>
+      </c>
+      <c r="C48" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="5">
+        <v>2</v>
+      </c>
+      <c r="C49" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="5">
+        <v>9</v>
+      </c>
+      <c r="C50" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B51" s="5"/>
       <c r="C51" s="5"/>
     </row>
-    <row r="52" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B52" s="5"/>
       <c r="C52" s="5"/>
     </row>
-    <row r="53" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B53" s="5"/>
       <c r="C53" s="5"/>
     </row>
-    <row r="54" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
     </row>
-    <row r="55" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B55" s="5"/>
       <c r="C55" s="5"/>
     </row>
-    <row r="56" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B56" s="5"/>
       <c r="C56" s="5"/>
     </row>
-    <row r="57" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
     </row>
-    <row r="58" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
     </row>
-    <row r="59" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
     </row>
-    <row r="60" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B60" s="5"/>
       <c r="C60" s="5"/>
     </row>
-    <row r="61" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B61" s="5"/>
       <c r="C61" s="5"/>
     </row>
-    <row r="62" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
     </row>
-    <row r="63" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B63" s="5"/>
       <c r="C63" s="5"/>
     </row>
-    <row r="64" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
     </row>
@@ -7094,10 +7705,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7467,6 +8078,98 @@
         <v>0</v>
       </c>
       <c r="G16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="1">
+        <v>4</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B20" s="1">
+        <v>1</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1">
         <v>0</v>
       </c>
     </row>
@@ -7480,10 +8183,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F50"/>
   <sheetViews>
-    <sheetView topLeftCell="A32" zoomScale="225" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="C42" zoomScale="225" workbookViewId="0">
+      <selection activeCell="F46" sqref="F46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -8155,6 +8858,193 @@
         <v>140</v>
       </c>
       <c r="E39" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B40" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C40">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D40" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B41" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C41">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D41" t="s">
+        <v>140</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B42" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C42">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D42" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B43" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C43">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D43" t="s">
+        <v>140</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B44" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C44">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D44" t="s">
+        <v>140</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B45" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C45">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D45" t="s">
+        <v>140</v>
+      </c>
+      <c r="E45" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C46">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D46" t="s">
+        <v>140</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B47" s="12">
+        <v>31.803058</v>
+      </c>
+      <c r="C47">
+        <v>35.231279999999998</v>
+      </c>
+      <c r="D47" t="s">
+        <v>140</v>
+      </c>
+      <c r="E47" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="12">
+        <v>31.765000000000001</v>
+      </c>
+      <c r="C48" s="12">
+        <v>35.197221999999996</v>
+      </c>
+      <c r="D48" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="12">
+        <v>31.78</v>
+      </c>
+      <c r="C49" s="12">
+        <v>35.200000000000003</v>
+      </c>
+      <c r="D49" t="s">
+        <v>164</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="12">
+        <v>31.835000000000001</v>
+      </c>
+      <c r="C50" s="12">
+        <v>35.261944</v>
+      </c>
+      <c r="D50" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="10" t="s">
         <v>55</v>
       </c>
     </row>

--- a/data/Tomb Groups.xlsx
+++ b/data/Tomb Groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bradyschuh/Documents/GitHub/ossuary-tomb-groups/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9D4AA49-2EEE-9C4D-B0B9-BA31D6F1F310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{301D159A-10EE-F847-995E-D5CD80E36788}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="500" windowWidth="14400" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Location" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="232">
   <si>
     <t>Tomb Group ID</t>
   </si>
@@ -161,15 +161,6 @@
     <t>Number of Inscribed Ossuaries</t>
   </si>
   <si>
-    <t>Greek</t>
-  </si>
-  <si>
-    <t>Latin</t>
-  </si>
-  <si>
-    <t>Aramaic</t>
-  </si>
-  <si>
     <t>P</t>
   </si>
   <si>
@@ -242,9 +233,6 @@
     <t>Jericho, Tomb A2</t>
   </si>
   <si>
-    <t>Hebrew</t>
-  </si>
-  <si>
     <t>https://mapcarta.com/12908914</t>
   </si>
   <si>
@@ -531,12 +519,218 @@
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hizma</t>
+  </si>
+  <si>
+    <t>Kefar Sha'ul</t>
+  </si>
+  <si>
+    <t>I. Eisenberg</t>
+  </si>
+  <si>
+    <t>tg050</t>
+  </si>
+  <si>
+    <t>https://www.google.com/maps/place/%D7%9B%D7%A4%D7%A8+%D7%A9%D7%90%D7%95%D7%9C,+Jerusalem,+Israel%E2%80%AD/@31.7865082,35.1755651,17z/data=!4m15!1m8!3m7!1s0x1502d7acb63f2167:0x14dc625d7a445359!2z15vXpNeoINep15DXldecLCBKZXJ1c2FsZW0sIElzcmFlbA!3b1!8m2!3d31.786691!4d35.177668!16s%2Fg%2F1th54c0r!3m5!1s0x1502d7acb63f2167:0x14dc625d7a445359!8m2!3d31.786691!4d35.177668!16s%2Fg%2F1th54c0r?entry=ttu</t>
+  </si>
+  <si>
+    <t>tg051</t>
+  </si>
+  <si>
+    <t>Kidron Valley (a)</t>
+  </si>
+  <si>
+    <t>E. L. Sukenik</t>
+  </si>
+  <si>
+    <t>Return (General)</t>
+  </si>
+  <si>
+    <t>tg052</t>
+  </si>
+  <si>
+    <t>Kidron Valley (b), Beit Saḥûr el Atîqạ</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Beit_Sahour</t>
+  </si>
+  <si>
+    <t>tg053</t>
+  </si>
+  <si>
+    <t>tg054</t>
+  </si>
+  <si>
+    <t>En Rogel, southeast of the Kidron Valley (d)</t>
+  </si>
+  <si>
+    <t>L. A. Mayer</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Ein_Rogel</t>
+  </si>
+  <si>
+    <t>tg055</t>
+  </si>
+  <si>
+    <t>Kidron Valley (e), near Silwan</t>
+  </si>
+  <si>
+    <t>55 bis</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Silwan</t>
+  </si>
+  <si>
+    <t>tg056</t>
+  </si>
+  <si>
+    <t>tg057</t>
+  </si>
+  <si>
+    <t>Wadi el-Aḥmadieh, northern slope of the Kidron Valley (g)</t>
+  </si>
+  <si>
+    <t>tg058</t>
+  </si>
+  <si>
+    <t>Meqor Ḥayim</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mekor_Chaim</t>
+  </si>
+  <si>
+    <t>tg060</t>
+  </si>
+  <si>
+    <t>Mount of Offence (a), Batn el-Hawa</t>
+  </si>
+  <si>
+    <t>tg059</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Batn_al-Hawa</t>
+  </si>
+  <si>
+    <t>Mount of Offence (b), vicinity of the former Government House</t>
+  </si>
+  <si>
+    <t>tg061</t>
+  </si>
+  <si>
+    <t>D. C. Baramki</t>
+  </si>
+  <si>
+    <t>tg062</t>
+  </si>
+  <si>
+    <t>Mount of Olives, western slope</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mount_of_Olives</t>
+  </si>
+  <si>
+    <t>tg063</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (a)</t>
+  </si>
+  <si>
+    <t>tg064</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (b)</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Mount_Scopus</t>
+  </si>
+  <si>
+    <t>tg065</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (c), east of the Augusta Victoria Hospital</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/Augusta_Victoria_Hospital</t>
+  </si>
+  <si>
+    <t>tg066</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (d), Botanical Gardens</t>
+  </si>
+  <si>
+    <t>D. Barag</t>
+  </si>
+  <si>
+    <t>https://en.wikipedia.org/wiki/National_Botanic_Garden_of_Israel</t>
+  </si>
+  <si>
+    <t>tg067</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (e), Botanical Gardens</t>
+  </si>
+  <si>
+    <t>L. Y. Rahmani</t>
+  </si>
+  <si>
+    <t>Kidron Valley (c), Beit Saḥûr el Atîqạ</t>
+  </si>
+  <si>
+    <t>Kidron Valley (f), near Silwan</t>
+  </si>
+  <si>
+    <t>Mount of Offence (c), vicinity of the former Government House</t>
+  </si>
+  <si>
+    <t>tg068</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (f), Botanical Gardens</t>
+  </si>
+  <si>
+    <t>R. Reich</t>
+  </si>
+  <si>
+    <t>tg069</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (g), Botanical Gardens</t>
+  </si>
+  <si>
+    <t>tg070</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (h), Botanical Gardens</t>
+  </si>
+  <si>
+    <t>tg071</t>
+  </si>
+  <si>
+    <t>Mount Scopus, eastern slope (i), Botanical Gardens</t>
+  </si>
+  <si>
+    <t>G. Edelstein</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>J</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="176" formatCode="0.000000000000"/>
+    <numFmt numFmtId="178" formatCode="0.0000000000000"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -647,25 +841,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="170" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -885,10 +1087,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView topLeftCell="B70" zoomScale="328" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1076,142 +1278,142 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
@@ -1219,252 +1421,252 @@
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B32" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="9" t="s">
+      <c r="C34" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="7" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="13" t="s">
+      <c r="B35" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C35" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="7" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C39" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B35" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B36" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="C36" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
-        <v>118</v>
-      </c>
-      <c r="B37" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C37" s="9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
+    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="13" t="s">
+      <c r="B40" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="9" t="s">
+      <c r="C40" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B39" s="13" t="s">
+      <c r="B41" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C41" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="9" t="s">
+    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B40" s="13" t="s">
+      <c r="B42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C42" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="9" t="s">
+    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="13" t="s">
+      <c r="B43" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="C41" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
+      <c r="C43" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="13" t="s">
+    </row>
+    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="9" t="s">
+      <c r="B44" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B43" s="13" t="s">
+      <c r="C44" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="B45" s="11" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C45" s="9" t="s">
-        <v>132</v>
+      <c r="C45" s="7" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>17</v>
@@ -1472,32 +1674,32 @@
     </row>
     <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>17</v>
@@ -1505,24 +1707,266 @@
     </row>
     <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="B57" s="10" t="s">
+      <c r="C58" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>167</v>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>
@@ -1535,10 +1979,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F347"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="B222" sqref="B222"/>
+    <sheetView topLeftCell="A339" zoomScale="313" workbookViewId="0">
+      <selection activeCell="B347" sqref="B347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1740,7 +2184,7 @@
     </row>
     <row r="25" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B25" s="1">
         <v>762</v>
@@ -1748,7 +2192,7 @@
     </row>
     <row r="26" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B26" s="1">
         <v>763</v>
@@ -1756,7 +2200,7 @@
     </row>
     <row r="27" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B27" s="1">
         <v>764</v>
@@ -1764,7 +2208,7 @@
     </row>
     <row r="28" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" s="1">
         <v>765</v>
@@ -1772,7 +2216,7 @@
     </row>
     <row r="29" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1">
         <v>766</v>
@@ -1780,7 +2224,7 @@
     </row>
     <row r="30" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1">
         <v>767</v>
@@ -1788,7 +2232,7 @@
     </row>
     <row r="31" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B31" s="1">
         <v>768</v>
@@ -1796,7 +2240,7 @@
     </row>
     <row r="32" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1">
         <v>769</v>
@@ -1804,7 +2248,7 @@
     </row>
     <row r="33" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="1">
         <v>770</v>
@@ -1812,7 +2256,7 @@
     </row>
     <row r="34" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" s="1">
         <v>771</v>
@@ -1820,7 +2264,7 @@
     </row>
     <row r="35" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B35" s="1">
         <v>772</v>
@@ -1828,7 +2272,7 @@
     </row>
     <row r="36" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B36" s="1">
         <v>773</v>
@@ -1836,7 +2280,7 @@
     </row>
     <row r="37" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B37" s="1">
         <v>774</v>
@@ -1844,7 +2288,7 @@
     </row>
     <row r="38" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B38" s="1">
         <v>775</v>
@@ -1852,7 +2296,7 @@
     </row>
     <row r="39" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B39" s="1">
         <v>776</v>
@@ -1860,7 +2304,7 @@
     </row>
     <row r="40" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B40" s="1">
         <v>777</v>
@@ -1868,7 +2312,7 @@
     </row>
     <row r="41" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B41" s="1">
         <v>778</v>
@@ -1876,7 +2320,7 @@
     </row>
     <row r="42" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1">
         <v>779</v>
@@ -1884,7 +2328,7 @@
     </row>
     <row r="43" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B43" s="1">
         <v>780</v>
@@ -1892,7 +2336,7 @@
     </row>
     <row r="44" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B44" s="1">
         <v>781</v>
@@ -1900,7 +2344,7 @@
     </row>
     <row r="45" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B45" s="1">
         <v>782</v>
@@ -1908,7 +2352,7 @@
     </row>
     <row r="46" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B46" s="1">
         <v>783</v>
@@ -1916,7 +2360,7 @@
     </row>
     <row r="47" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B47" s="1">
         <v>784</v>
@@ -1924,7 +2368,7 @@
     </row>
     <row r="48" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B48" s="1">
         <v>785</v>
@@ -1932,7 +2376,7 @@
     </row>
     <row r="49" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B49" s="1">
         <v>786</v>
@@ -1940,7 +2384,7 @@
     </row>
     <row r="50" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B50" s="1">
         <v>787</v>
@@ -1948,7 +2392,7 @@
     </row>
     <row r="51" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B51" s="1">
         <v>788</v>
@@ -1956,7 +2400,7 @@
     </row>
     <row r="52" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B52" s="1">
         <v>789</v>
@@ -1964,7 +2408,7 @@
     </row>
     <row r="53" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B53" s="1">
         <v>790</v>
@@ -1972,7 +2416,7 @@
     </row>
     <row r="54" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B54" s="1">
         <v>791</v>
@@ -1980,7 +2424,7 @@
     </row>
     <row r="55" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B55" s="1">
         <v>792</v>
@@ -1988,7 +2432,7 @@
     </row>
     <row r="56" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1">
         <v>793</v>
@@ -1996,7 +2440,7 @@
     </row>
     <row r="57" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A57" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B57" s="1">
         <v>794</v>
@@ -2004,7 +2448,7 @@
     </row>
     <row r="58" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B58" s="1">
         <v>795</v>
@@ -2012,7 +2456,7 @@
     </row>
     <row r="59" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B59" s="1">
         <v>796</v>
@@ -2020,7 +2464,7 @@
     </row>
     <row r="60" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A60" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B60" s="1">
         <v>797</v>
@@ -2028,7 +2472,7 @@
     </row>
     <row r="61" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A61" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B61" s="1">
         <v>798</v>
@@ -2036,7 +2480,7 @@
     </row>
     <row r="62" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B62" s="1">
         <v>799</v>
@@ -2044,7 +2488,7 @@
     </row>
     <row r="63" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A63" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B63" s="1">
         <v>800</v>
@@ -2052,7 +2496,7 @@
     </row>
     <row r="64" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A64" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B64" s="1">
         <v>801</v>
@@ -2060,7 +2504,7 @@
     </row>
     <row r="65" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B65" s="1">
         <v>802</v>
@@ -2068,7 +2512,7 @@
     </row>
     <row r="66" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B66" s="1">
         <v>803</v>
@@ -2076,7 +2520,7 @@
     </row>
     <row r="67" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B67" s="1">
         <v>804</v>
@@ -2084,7 +2528,7 @@
     </row>
     <row r="68" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B68" s="1">
         <v>761</v>
@@ -2092,7 +2536,7 @@
     </row>
     <row r="69" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1">
         <v>47</v>
@@ -2100,7 +2544,7 @@
     </row>
     <row r="70" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B70" s="1">
         <v>48</v>
@@ -2108,7 +2552,7 @@
     </row>
     <row r="71" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B71" s="1">
         <v>49</v>
@@ -2116,7 +2560,7 @@
     </row>
     <row r="72" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B72" s="1">
         <v>50</v>
@@ -2124,7 +2568,7 @@
     </row>
     <row r="73" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B73" s="1">
         <v>51</v>
@@ -2132,7 +2576,7 @@
     </row>
     <row r="74" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B74" s="1">
         <v>80</v>
@@ -2140,7 +2584,7 @@
     </row>
     <row r="75" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B75" s="1">
         <v>58</v>
@@ -2148,7 +2592,7 @@
     </row>
     <row r="76" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B76" s="1">
         <v>59</v>
@@ -2156,7 +2600,7 @@
     </row>
     <row r="77" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1">
         <v>125</v>
@@ -2164,7 +2608,7 @@
     </row>
     <row r="78" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B78" s="1">
         <v>126</v>
@@ -2172,1155 +2616,2155 @@
     </row>
     <row r="79" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B79" s="1">
         <v>307</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B80" s="9">
+      <c r="A80" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B80" s="7">
         <v>291</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B81" s="9">
+      <c r="A81" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="7">
         <v>292</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="9">
+      <c r="A82" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" s="7">
         <v>293</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B83" s="9">
+      <c r="A83" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B83" s="7">
         <v>294</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B84" s="9">
+      <c r="A84" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B84" s="7">
         <v>295</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" s="9">
+      <c r="A85" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B85" s="7">
         <v>296</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B86" s="9">
+      <c r="A86" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B86" s="7">
         <v>297</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B87" s="9">
+      <c r="A87" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="7">
         <v>298</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B88" s="9">
+      <c r="A88" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B88" s="7">
         <v>299</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B89" s="9">
+      <c r="A89" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B89" s="7">
         <v>300</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B90" s="9">
+      <c r="A90" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B90" s="7">
         <v>301</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B91" s="9">
+      <c r="A91" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" s="7">
         <v>302</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B92" s="9">
+      <c r="A92" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B92" s="7">
         <v>303</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B93" s="9">
+      <c r="A93" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B93" s="7">
         <v>192</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B94" s="9">
+      <c r="A94" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B94" s="7">
         <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B95" s="9">
+      <c r="A95" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B95" s="7">
         <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B96" s="9">
+      <c r="A96" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B96" s="7">
         <v>195</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="B97" s="9">
+      <c r="A97" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B97" s="7">
         <v>196</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B98" s="9">
+      <c r="A98" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B98" s="7">
         <v>701</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B99" s="9">
+      <c r="A99" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B99" s="7">
         <v>702</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B100" s="9">
+      <c r="A100" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B100" s="7">
         <v>703</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B101" s="9">
+      <c r="A101" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="7">
         <v>704</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B102" s="9">
+      <c r="A102" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B102" s="7">
         <v>705</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B103" s="9">
+      <c r="A103" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B103" s="7">
         <v>706</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B104" s="9">
+      <c r="A104" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B104" s="7">
         <v>707</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B105" s="9">
+      <c r="A105" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B105" s="7">
         <v>708</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B106" s="9">
+      <c r="A106" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B106" s="7">
         <v>709</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B107" s="9">
+      <c r="A107" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B107" s="7">
         <v>712</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="9">
+      <c r="A108" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B108" s="7">
         <v>713</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B109" s="9">
+      <c r="A109" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B109" s="7">
         <v>714</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B110" s="9">
+      <c r="A110" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B110" s="7">
         <v>715</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A111" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B111" s="9">
+      <c r="A111" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B111" s="7">
         <v>716</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A112" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B112" s="9">
+      <c r="A112" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B112" s="7">
         <v>717</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A113" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B113" s="9">
+      <c r="A113" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B113" s="7">
         <v>718</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A114" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B114" s="9">
+      <c r="A114" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B114" s="7">
         <v>719</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A115" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B115" s="9">
+      <c r="A115" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B115" s="7">
         <v>720</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A116" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B116" s="9">
+      <c r="A116" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B116" s="7">
         <v>721</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A117" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B117" s="9">
+      <c r="A117" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B117" s="7">
         <v>722</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A118" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B118" s="9">
+      <c r="A118" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="7">
         <v>723</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A119" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B119" s="9">
+      <c r="A119" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B119" s="7">
         <v>724</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A120" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B120" s="9">
+      <c r="A120" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B120" s="7">
         <v>725</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A121" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B121" s="9">
+      <c r="A121" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B121" s="7">
         <v>726</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A122" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B122" s="9">
+      <c r="A122" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B122" s="7">
         <v>727</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A123" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B123" s="9">
+      <c r="A123" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B123" s="7">
         <v>728</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A124" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B124" s="9">
+      <c r="A124" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B124" s="7">
         <v>729</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A125" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B125" s="9">
+      <c r="A125" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B125" s="7">
         <v>730</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A126" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B126" s="9">
+      <c r="A126" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="7">
         <v>731</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A127" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B127" s="9">
+      <c r="A127" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B127" s="7">
         <v>732</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A128" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B128" s="9">
+      <c r="A128" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B128" s="7">
         <v>733</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A129" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B129" s="9">
+      <c r="A129" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B129" s="7">
         <v>734</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A130" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="B130" s="9">
+      <c r="A130" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B130" s="7">
         <v>735</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A131" s="10" t="s">
+      <c r="A131" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B131" s="7">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B132" s="7">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A133" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B133" s="7">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A134" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B134" s="7">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A135" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B135" s="7">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A136" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B131" s="9">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A132" s="10" t="s">
+      <c r="B136" s="7">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B132" s="9">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A133" s="10" t="s">
+      <c r="B137" s="7">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B133" s="9">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A134" s="10" t="s">
+      <c r="B138" s="7">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="B134" s="9">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A135" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="B135" s="9">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A136" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B136" s="9">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A137" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B137" s="9">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A138" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B138" s="9">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A139" s="10" t="s">
-        <v>115</v>
-      </c>
-      <c r="B139" s="9">
+      <c r="B139" s="7">
         <v>550</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A140" s="10" t="s">
+      <c r="A140" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B140" s="7">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B141" s="7">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B142" s="7">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B143" s="7">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" s="7">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B145" s="7">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A146" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B146" s="7">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A147" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B147" s="7">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A148" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B148" s="7">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A149" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="7">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A150" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B140" s="9">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A141" s="10" t="s">
+      <c r="B150" s="7">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A151" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B141" s="9">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A142" s="10" t="s">
+      <c r="B151" s="7">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A152" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="B142" s="9">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A143" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="B143" s="9">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A144" s="10" t="s">
+      <c r="B152" s="7">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A153" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B144" s="9">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A145" s="10" t="s">
+      <c r="B153" s="7">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A154" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B145" s="9">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="146" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A146" s="10" t="s">
+      <c r="B154" s="7">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A155" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B146" s="9">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A147" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B147" s="9">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A148" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B148" s="9">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A149" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="B149" s="9">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A150" s="10" t="s">
+      <c r="B155" s="7">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A156" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B150" s="9">
-        <v>535</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A151" s="10" t="s">
+      <c r="B156" s="7">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A157" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B151" s="9">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A152" s="10" t="s">
+      <c r="B157" s="7">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A158" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B152" s="9">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A153" s="10" t="s">
+      <c r="B158" s="7">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A159" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B159" s="7">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A160" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B160" s="7">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A161" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B161" s="7">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A162" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B162" s="7">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A163" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B153" s="9">
-        <v>547</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A154" s="10" t="s">
+      <c r="B163" s="7">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A164" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="B154" s="9">
-        <v>590</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A155" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="B155" s="9">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A156" s="10" t="s">
+      <c r="B164" s="7">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B156" s="9">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A157" s="10" t="s">
+      <c r="B165" s="7">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B157" s="9">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A158" s="10" t="s">
+      <c r="B166" s="7">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B158" s="9">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="159" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A159" s="10" t="s">
+      <c r="B167" s="7">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B159" s="9">
-        <v>561</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A160" s="10" t="s">
+      <c r="B168" s="7">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B160" s="9">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A161" s="10" t="s">
+      <c r="B169" s="7">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="B161" s="9">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A162" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="B162" s="9">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A163" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B163" s="9">
-        <v>596</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A164" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="B164" s="9">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A165" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B165" s="9">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A166" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B166" s="9">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A167" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B167" s="9">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A168" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B168" s="9">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="169" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A169" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B169" s="9">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="170" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A170" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="B170" s="9">
+      <c r="B170" s="7">
         <v>607</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A171" s="10" t="s">
+      <c r="A171" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B171" s="7">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B172" s="7">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B173" s="7">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A174" s="8" t="s">
         <v>133</v>
-      </c>
-      <c r="B171" s="9">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="172" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A172" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B172" s="9">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A173" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="B173" s="9">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A174" s="10" t="s">
-        <v>137</v>
       </c>
       <c r="B174" s="1">
         <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A175" s="10" t="s">
-        <v>137</v>
+      <c r="A175" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B175" s="1">
         <v>217</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A176" s="10" t="s">
-        <v>137</v>
+      <c r="A176" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B176" s="1">
         <v>218</v>
       </c>
     </row>
     <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A177" s="10" t="s">
-        <v>137</v>
+      <c r="A177" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B177" s="1">
         <v>219</v>
       </c>
     </row>
     <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A178" s="10" t="s">
-        <v>137</v>
+      <c r="A178" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B178" s="1">
         <v>220</v>
       </c>
     </row>
     <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A179" s="10" t="s">
-        <v>137</v>
+      <c r="A179" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B179" s="1">
         <v>221</v>
       </c>
     </row>
     <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A180" s="10" t="s">
-        <v>137</v>
+      <c r="A180" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B180" s="1">
         <v>222</v>
       </c>
     </row>
     <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A181" s="10" t="s">
-        <v>137</v>
+      <c r="A181" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="B181" s="1">
         <v>223</v>
       </c>
     </row>
     <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A182" s="10" t="s">
-        <v>141</v>
+      <c r="A182" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B182" s="1">
         <v>224</v>
       </c>
     </row>
     <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A183" s="10" t="s">
-        <v>141</v>
+      <c r="A183" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="B183" s="1">
         <v>225</v>
       </c>
     </row>
     <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A184" s="10" t="s">
-        <v>143</v>
+      <c r="A184" s="8" t="s">
+        <v>139</v>
       </c>
       <c r="B184" s="1">
         <v>350</v>
       </c>
     </row>
     <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A185" s="10" t="s">
-        <v>145</v>
+      <c r="A185" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B185" s="1">
         <v>360</v>
       </c>
     </row>
     <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A186" s="10" t="s">
-        <v>145</v>
+      <c r="A186" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B186" s="1">
         <v>361</v>
       </c>
     </row>
     <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A187" s="10" t="s">
-        <v>145</v>
+      <c r="A187" s="8" t="s">
+        <v>141</v>
       </c>
       <c r="B187" s="1">
         <v>362</v>
       </c>
     </row>
     <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A188" s="10" t="s">
-        <v>148</v>
+      <c r="A188" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B188" s="1">
         <v>363</v>
       </c>
     </row>
     <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A189" s="10" t="s">
-        <v>148</v>
+      <c r="A189" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B189" s="1">
         <v>364</v>
       </c>
-      <c r="F189" s="10"/>
+      <c r="F189" s="8"/>
     </row>
     <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A190" s="10" t="s">
-        <v>148</v>
+      <c r="A190" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B190" s="1">
         <v>365</v>
       </c>
     </row>
     <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A191" s="10" t="s">
-        <v>148</v>
+      <c r="A191" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B191" s="1">
         <v>366</v>
       </c>
     </row>
     <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A192" s="10" t="s">
-        <v>148</v>
+      <c r="A192" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B192" s="1">
         <v>367</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A193" s="10" t="s">
-        <v>148</v>
+      <c r="A193" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B193" s="1">
         <v>511</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A194" s="10" t="s">
-        <v>148</v>
+      <c r="A194" s="8" t="s">
+        <v>144</v>
       </c>
       <c r="B194" s="1">
         <v>512</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A195" s="10" t="s">
-        <v>150</v>
+      <c r="A195" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B195" s="1">
         <v>403</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A196" s="10" t="s">
-        <v>150</v>
+      <c r="A196" s="8" t="s">
+        <v>146</v>
       </c>
       <c r="B196" s="1">
         <v>549</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A197" s="10" t="s">
-        <v>152</v>
+      <c r="A197" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B197" s="1">
         <v>409</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A198" s="10" t="s">
-        <v>152</v>
+      <c r="A198" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B198" s="1">
         <v>410</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A199" s="10" t="s">
-        <v>152</v>
+      <c r="A199" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B199" s="1">
         <v>411</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A200" s="10" t="s">
-        <v>152</v>
+      <c r="A200" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B200" s="1">
         <v>412</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A201" s="10" t="s">
-        <v>152</v>
+      <c r="A201" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B201" s="1">
         <v>413</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A202" s="10" t="s">
-        <v>152</v>
+      <c r="A202" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B202" s="1">
         <v>414</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A203" s="10" t="s">
-        <v>152</v>
+      <c r="A203" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B203" s="1">
         <v>427</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A204" s="10" t="s">
-        <v>152</v>
+      <c r="A204" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B204" s="1">
         <v>428</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A205" s="10" t="s">
-        <v>152</v>
+      <c r="A205" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B205" s="1">
         <v>429</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A206" s="10" t="s">
-        <v>152</v>
+      <c r="A206" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B206" s="1">
         <v>430</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A207" s="10" t="s">
-        <v>152</v>
+      <c r="A207" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B207" s="1">
         <v>431</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A208" s="10" t="s">
-        <v>152</v>
+      <c r="A208" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B208" s="1">
         <v>444</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A209" s="10" t="s">
-        <v>152</v>
+      <c r="A209" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B209" s="1">
         <v>507</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A210" s="10" t="s">
-        <v>152</v>
+      <c r="A210" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B210" s="1">
         <v>541</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A211" s="10" t="s">
-        <v>152</v>
+      <c r="A211" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B211" s="1">
         <v>542</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A212" s="10" t="s">
-        <v>152</v>
+      <c r="A212" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="B212" s="1">
         <v>551</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A213" s="10" t="s">
-        <v>154</v>
+      <c r="A213" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B213" s="1">
         <v>438</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A214" s="10" t="s">
-        <v>154</v>
+      <c r="A214" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B214" s="1">
         <v>440</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A215" s="10" t="s">
-        <v>154</v>
+      <c r="A215" s="8" t="s">
+        <v>150</v>
       </c>
       <c r="B215" s="1">
         <v>441</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A216" s="10" t="s">
-        <v>157</v>
+      <c r="A216" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="B216" s="1">
         <v>439</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A217" s="10" t="s">
-        <v>159</v>
+      <c r="A217" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B217" s="1">
         <v>499</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A218" s="10" t="s">
-        <v>159</v>
+      <c r="A218" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B218" s="1">
         <v>500</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A219" s="10" t="s">
-        <v>159</v>
+      <c r="A219" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="B219" s="1">
         <v>501</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A220" s="10" t="s">
-        <v>162</v>
+      <c r="A220" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B220" s="1">
         <v>312</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A221" s="10" t="s">
-        <v>162</v>
+      <c r="A221" s="8" t="s">
+        <v>158</v>
       </c>
       <c r="B221" s="1">
         <v>324</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A222" s="10" t="s">
-        <v>165</v>
+      <c r="A222" s="8" t="s">
+        <v>161</v>
       </c>
       <c r="B222" s="1">
         <v>38</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B223" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B224" s="1">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B225" s="1">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B226" s="1">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B227" s="1">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A228" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B228" s="1">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A229" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B229" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A230" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B230" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A231" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B231" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A232" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B232" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A233" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B233" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A234" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B234" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A235" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B235" s="1">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A236" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B236" s="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A237" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B237" s="1">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A238" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B238" s="1">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A239" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B239" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A240" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B240" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A241" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B241" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A242" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B242" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A243" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B243" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A244" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B244" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A245" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B245" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A246" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B246" s="1">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A247" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B247" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A248" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B248" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A249" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B249" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A250" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B250" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A251" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B251" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A252" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B252" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A253" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B253" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A254" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B254" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A255" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B255" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A256" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B256" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A257" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B257" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A258" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B258" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A259" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B259" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A260" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B260" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A261" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B261" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A262" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B262" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A263" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B263" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A264" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A265" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B265" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A266" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B266" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A267" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B267" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A268" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B268" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A269" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B269" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A270" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B270" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A271" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B271" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A272" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B272" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A273" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="B273" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A274" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B274" s="1">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A275" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B275" s="1">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A276" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B276" s="1">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A277" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B277" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A278" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B278" s="1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A279" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B279" s="1">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A280" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B280" s="1">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A281" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B281" s="1">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A282" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B282" s="1">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A283" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B283" s="1">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A284" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B284" s="1">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A285" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B285" s="1">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A286" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B286" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A287" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="B287" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A288" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B288" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A289" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B289" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A290" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="B290" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A291" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B291" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A292" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B292" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A293" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B293" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A294" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B294" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A295" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B295" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A296" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B296" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A297" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B297" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A298" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="B298" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A299" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B299" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A300" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="B300" s="1">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A301" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B301" s="1">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A302" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B302" s="1">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A303" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B303" s="1">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A304" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B304" s="1">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A305" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B305" s="1">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A306" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B306" s="1">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A307" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B307" s="1">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A308" s="8" t="s">
+        <v>206</v>
+      </c>
+      <c r="B308" s="1">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A309" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B309" s="1">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A310" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B310" s="1">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A311" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B311" s="1">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A312" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B312" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A313" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="B313" s="1">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A314" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B314" s="1">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A315" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B315" s="1">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A316" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B316" s="1">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A317" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B317" s="1">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A318" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B318" s="1">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A319" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B319" s="1">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A320" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B320" s="1">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A321" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B321" s="1">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A322" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B322" s="1">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A323" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B323" s="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A324" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B324" s="1">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A325" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B325" s="1">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A326" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B326" s="1">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A327" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B327" s="1">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A328" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B328" s="1">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A329" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B329" s="1">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A330" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="B330" s="1">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A331" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B331" s="1">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A332" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B332" s="1">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A333" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B333" s="1">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A334" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B334" s="1">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A335" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B335" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A336" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B336" s="1">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A337" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B337" s="1">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A338" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B338" s="1">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A339" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="B339" s="1">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A340" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B340" s="1">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A341" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B341" s="1">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A342" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B342" s="1">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A343" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B343" s="1">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A344" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B344" s="1">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A345" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B345" s="1">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A346" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B346" s="1">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A347" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B347" s="1">
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -3336,13 +4780,15 @@
   </sheetPr>
   <dimension ref="A1:C1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView topLeftCell="A59" zoomScale="182" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="7.5" customWidth="1"/>
+    <col min="2" max="2" width="6.6640625" customWidth="1"/>
+    <col min="3" max="3" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3501,7 +4947,7 @@
     </row>
     <row r="15" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B15" s="5">
         <v>7</v>
@@ -3512,7 +4958,7 @@
     </row>
     <row r="16" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5">
         <v>9</v>
@@ -3523,7 +4969,7 @@
     </row>
     <row r="17" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B17" s="5">
         <v>6</v>
@@ -3534,7 +4980,7 @@
     </row>
     <row r="18" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B18" s="5">
         <v>4</v>
@@ -3545,7 +4991,7 @@
     </row>
     <row r="19" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5">
         <v>23</v>
@@ -3556,7 +5002,7 @@
     </row>
     <row r="20" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5">
         <v>3</v>
@@ -3567,7 +5013,7 @@
     </row>
     <row r="21" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B21" s="5">
         <v>8</v>
@@ -3578,7 +5024,7 @@
     </row>
     <row r="22" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
@@ -3589,7 +5035,7 @@
     </row>
     <row r="23" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B23" s="5">
         <v>3</v>
@@ -3599,8 +5045,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="9" t="s">
-        <v>87</v>
+      <c r="A24" s="7" t="s">
+        <v>83</v>
       </c>
       <c r="B24" s="5">
         <v>20</v>
@@ -3610,8 +5056,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="9" t="s">
-        <v>88</v>
+      <c r="A25" s="7" t="s">
+        <v>84</v>
       </c>
       <c r="B25" s="5">
         <v>4</v>
@@ -3621,8 +5067,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="9" t="s">
-        <v>89</v>
+      <c r="A26" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="B26" s="5">
         <v>10</v>
@@ -3632,8 +5078,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9" t="s">
-        <v>90</v>
+      <c r="A27" s="7" t="s">
+        <v>86</v>
       </c>
       <c r="B27" s="5">
         <v>24</v>
@@ -3643,8 +5089,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9" t="s">
-        <v>111</v>
+      <c r="A28" s="7" t="s">
+        <v>107</v>
       </c>
       <c r="B28" s="5">
         <v>7</v>
@@ -3654,8 +5100,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="9" t="s">
-        <v>115</v>
+      <c r="A29" s="7" t="s">
+        <v>111</v>
       </c>
       <c r="B29" s="5">
         <v>4</v>
@@ -3665,8 +5111,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="9" t="s">
-        <v>118</v>
+      <c r="A30" s="7" t="s">
+        <v>114</v>
       </c>
       <c r="B30" s="5">
         <v>4</v>
@@ -3676,8 +5122,8 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="9" t="s">
-        <v>120</v>
+      <c r="A31" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B31" s="5">
         <v>7</v>
@@ -3687,8 +5133,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="9" t="s">
-        <v>122</v>
+      <c r="A32" s="7" t="s">
+        <v>118</v>
       </c>
       <c r="B32" s="5">
         <v>3</v>
@@ -3698,8 +5144,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="9" t="s">
-        <v>124</v>
+      <c r="A33" s="7" t="s">
+        <v>120</v>
       </c>
       <c r="B33" s="5">
         <v>3</v>
@@ -3709,8 +5155,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="9" t="s">
-        <v>126</v>
+      <c r="A34" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B34" s="5">
         <v>7</v>
@@ -3720,8 +5166,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="9" t="s">
-        <v>128</v>
+      <c r="A35" s="7" t="s">
+        <v>124</v>
       </c>
       <c r="B35" s="5">
         <v>2</v>
@@ -3731,8 +5177,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="9" t="s">
-        <v>130</v>
+      <c r="A36" s="7" t="s">
+        <v>126</v>
       </c>
       <c r="B36" s="5">
         <v>7</v>
@@ -3742,8 +5188,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="9" t="s">
-        <v>133</v>
+      <c r="A37" s="7" t="s">
+        <v>129</v>
       </c>
       <c r="B37" s="5">
         <v>2</v>
@@ -3753,8 +5199,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="9" t="s">
-        <v>135</v>
+      <c r="A38" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -3765,7 +5211,7 @@
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B39" s="5">
         <v>8</v>
@@ -3776,7 +5222,7 @@
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B40" s="5">
         <v>2</v>
@@ -3787,7 +5233,7 @@
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="1" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B41" s="5">
         <v>1</v>
@@ -3798,7 +5244,7 @@
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B42" s="5">
         <v>3</v>
@@ -3809,7 +5255,7 @@
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B43" s="5">
         <v>9</v>
@@ -3820,7 +5266,7 @@
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B44" s="5">
         <v>2</v>
@@ -3831,7 +5277,7 @@
     </row>
     <row r="45" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B45" s="5">
         <v>16</v>
@@ -3842,7 +5288,7 @@
     </row>
     <row r="46" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B46" s="5">
         <v>3</v>
@@ -3853,7 +5299,7 @@
     </row>
     <row r="47" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A47" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B47" s="5">
         <v>1</v>
@@ -3864,7 +5310,7 @@
     </row>
     <row r="48" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B48" s="5">
         <v>4</v>
@@ -3875,7 +5321,7 @@
     </row>
     <row r="49" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A49" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B49" s="5">
         <v>2</v>
@@ -3886,7 +5332,7 @@
     </row>
     <row r="50" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="A50" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B50" s="5">
         <v>9</v>
@@ -3896,122 +5342,276 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="A51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="5">
+        <v>6</v>
+      </c>
+      <c r="C51" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="52" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
+      <c r="A52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="5">
+        <v>11</v>
+      </c>
+      <c r="C52" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="53" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="A53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="5">
+        <v>5</v>
+      </c>
+      <c r="C53" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="54" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="5">
+        <v>5</v>
+      </c>
+      <c r="C54" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="55" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="A55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="5">
+        <v>19</v>
+      </c>
+      <c r="C55" s="5">
+        <v>13</v>
+      </c>
     </row>
     <row r="56" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="A56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="5">
+        <v>6</v>
+      </c>
+      <c r="C56" s="5">
+        <v>3</v>
+      </c>
     </row>
     <row r="57" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
+      <c r="A57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="5">
+        <v>12</v>
+      </c>
+      <c r="C57" s="5">
+        <v>7</v>
+      </c>
     </row>
     <row r="58" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="A58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="5">
+        <v>18</v>
+      </c>
+      <c r="C58" s="5">
+        <v>5</v>
+      </c>
     </row>
     <row r="59" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
+      <c r="A59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="5">
+        <v>6</v>
+      </c>
+      <c r="C59" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="A60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="5">
+        <v>12</v>
+      </c>
+      <c r="C60" s="5">
+        <v>1</v>
+      </c>
     </row>
     <row r="61" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="A61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="5">
+        <v>2</v>
+      </c>
+      <c r="C61" s="5">
+        <v>0</v>
+      </c>
     </row>
     <row r="62" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="A62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="5">
+        <v>13</v>
+      </c>
+      <c r="C62" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="63" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
+      <c r="A63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="5">
+        <v>10</v>
+      </c>
+      <c r="C63" s="5">
+        <v>2</v>
+      </c>
     </row>
     <row r="64" spans="1:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-    </row>
-    <row r="65" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-    </row>
-    <row r="66" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-    </row>
-    <row r="67" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-    </row>
-    <row r="68" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-    </row>
-    <row r="69" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="70" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B70" s="5"/>
-      <c r="C70" s="5"/>
-    </row>
-    <row r="71" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B71" s="5"/>
-      <c r="C71" s="5"/>
-    </row>
-    <row r="72" spans="2:3" ht="13" x14ac:dyDescent="0.15">
-      <c r="B72" s="5"/>
-      <c r="C72" s="5"/>
-    </row>
-    <row r="73" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="5">
+        <v>1</v>
+      </c>
+      <c r="C64" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="5">
+        <v>1</v>
+      </c>
+      <c r="C65" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="5">
+        <v>8</v>
+      </c>
+      <c r="C66" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="5">
+        <v>8</v>
+      </c>
+      <c r="C67" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="5">
+        <v>9</v>
+      </c>
+      <c r="C68" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="5">
+        <v>8</v>
+      </c>
+      <c r="C69" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="5">
+        <v>1</v>
+      </c>
+      <c r="C70" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="5">
+        <v>9</v>
+      </c>
+      <c r="C71" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="13" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="5">
+        <v>8</v>
+      </c>
+      <c r="C72" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B73" s="5"/>
       <c r="C73" s="5"/>
     </row>
-    <row r="74" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B74" s="5"/>
       <c r="C74" s="5"/>
     </row>
-    <row r="75" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B75" s="5"/>
       <c r="C75" s="5"/>
     </row>
-    <row r="76" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B76" s="5"/>
       <c r="C76" s="5"/>
     </row>
-    <row r="77" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
     </row>
-    <row r="78" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
     </row>
-    <row r="79" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
     </row>
-    <row r="80" spans="2:3" ht="13" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:3" ht="13" x14ac:dyDescent="0.15">
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
     </row>
@@ -7705,38 +9305,44 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView zoomScale="242" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="6.83203125" customWidth="1"/>
+    <col min="3" max="3" width="5.5" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" customWidth="1"/>
+    <col min="5" max="5" width="3.6640625" customWidth="1"/>
+    <col min="6" max="6" width="3.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>230</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -7755,11 +9361,8 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -7778,13 +9381,10 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -7801,13 +9401,10 @@
       <c r="F4">
         <v>0</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -7824,13 +9421,10 @@
       <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -7845,15 +9439,12 @@
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
@@ -7870,13 +9461,10 @@
       <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
@@ -7893,174 +9481,150 @@
       <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="9">
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="7">
         <v>1</v>
       </c>
-      <c r="C9" s="9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="9">
-        <v>0</v>
-      </c>
-      <c r="E9" s="9">
-        <v>0</v>
-      </c>
-      <c r="F9" s="9">
-        <v>0</v>
-      </c>
-      <c r="G9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B10" s="9">
+      <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="7">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
-        <v>0</v>
-      </c>
-      <c r="D10" s="9">
-        <v>0</v>
-      </c>
-      <c r="E10" s="9">
-        <v>0</v>
-      </c>
-      <c r="F10" s="9">
-        <v>0</v>
-      </c>
-      <c r="G10" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B11" s="9">
+      <c r="C10" s="7">
+        <v>0</v>
+      </c>
+      <c r="D10" s="7">
+        <v>0</v>
+      </c>
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="7">
         <v>5</v>
       </c>
-      <c r="C11" s="9">
+      <c r="C11" s="7">
         <v>1</v>
       </c>
-      <c r="D11" s="9">
-        <v>0</v>
-      </c>
-      <c r="E11" s="9">
-        <v>0</v>
-      </c>
-      <c r="F11" s="9">
-        <v>0</v>
-      </c>
-      <c r="G11" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B12" s="9">
+      <c r="D11" s="7">
+        <v>0</v>
+      </c>
+      <c r="E11" s="7">
+        <v>0</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="7">
         <v>4</v>
       </c>
-      <c r="C12" s="9">
+      <c r="C12" s="7">
         <v>2</v>
       </c>
-      <c r="D12" s="9">
-        <v>0</v>
-      </c>
-      <c r="E12" s="9">
-        <v>0</v>
-      </c>
-      <c r="F12" s="9">
-        <v>0</v>
-      </c>
-      <c r="G12" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B13" s="9">
+      <c r="D12" s="7">
+        <v>0</v>
+      </c>
+      <c r="E12" s="7">
+        <v>0</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="7">
         <v>1</v>
       </c>
-      <c r="C13" s="9">
-        <v>0</v>
-      </c>
-      <c r="D13" s="9">
-        <v>0</v>
-      </c>
-      <c r="E13" s="9">
-        <v>0</v>
-      </c>
-      <c r="F13" s="9">
-        <v>0</v>
-      </c>
-      <c r="G13" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="9">
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="7">
         <v>1</v>
       </c>
-      <c r="C14" s="9">
-        <v>0</v>
-      </c>
-      <c r="D14" s="9">
-        <v>0</v>
-      </c>
-      <c r="E14" s="9">
-        <v>0</v>
-      </c>
-      <c r="F14" s="9">
-        <v>0</v>
-      </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="9" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="9">
+      <c r="C14" s="7">
+        <v>0</v>
+      </c>
+      <c r="D14" s="7">
+        <v>0</v>
+      </c>
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="7">
         <v>1</v>
       </c>
-      <c r="C15" s="9">
-        <v>0</v>
-      </c>
-      <c r="D15" s="9">
-        <v>0</v>
-      </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="9">
-        <v>0</v>
-      </c>
-      <c r="G15" s="9">
+      <c r="C15" s="7">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B16" s="1">
         <v>0</v>
@@ -8077,13 +9641,10 @@
       <c r="F16" s="1">
         <v>0</v>
       </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B17" s="1">
         <v>1</v>
@@ -8100,13 +9661,10 @@
       <c r="F17" s="1">
         <v>0</v>
       </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B18" s="1">
         <v>4</v>
@@ -8123,13 +9681,10 @@
       <c r="F18" s="1">
         <v>0</v>
       </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
@@ -8146,13 +9701,10 @@
       <c r="F19" s="1">
         <v>0</v>
       </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B20" s="1">
         <v>1</v>
@@ -8169,7 +9721,324 @@
       <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="1">
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B22" s="1">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B23" s="1">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24" s="1">
+        <v>1</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B25" s="1">
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B26" s="1">
+        <v>1</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B27" s="1">
+        <v>6</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B28" s="1">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1">
+        <v>2</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B33" s="1">
+        <v>1</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B36" s="1">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
         <v>0</v>
       </c>
     </row>
@@ -8183,15 +10052,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F73"/>
   <sheetViews>
-    <sheetView topLeftCell="C42" zoomScale="225" workbookViewId="0">
-      <selection activeCell="F46" sqref="F46"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="225" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="3" width="26.83203125" customWidth="1"/>
+    <col min="2" max="3" width="26.83203125" style="14" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8199,854 +10068,1232 @@
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>74</v>
+      <c r="B1" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>70</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="17">
         <v>31.916667</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="17">
         <v>35.288333000000002</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>52</v>
+      <c r="D2" s="6" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="17">
         <v>32.083333000000003</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="17">
         <v>34.833333000000003</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>54</v>
+      <c r="D3" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="17">
         <v>31.953889</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="17">
         <v>34.924999999999997</v>
       </c>
-      <c r="D4" s="7" t="s">
-        <v>56</v>
+      <c r="D4" s="6" t="s">
+        <v>53</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="17">
         <v>31.557259999999999</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="17">
         <v>35.033830000000002</v>
       </c>
-      <c r="D5" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>73</v>
+      <c r="D5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
+      <c r="B6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="18">
         <v>31.37124</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="17">
         <v>34.864890000000003</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>60</v>
+      <c r="D7" s="6" t="s">
+        <v>57</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="18">
         <v>32.143000000000001</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="18">
         <v>35.235779999999998</v>
       </c>
-      <c r="D8" s="7" t="s">
-        <v>61</v>
+      <c r="D8" s="6" t="s">
+        <v>58</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>58</v>
+      <c r="B9" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>58</v>
+      <c r="B10" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="17" t="s">
+        <v>55</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="17">
         <v>32.913536999999998</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="17">
         <v>35.150565</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>62</v>
+      <c r="D11" s="6" t="s">
+        <v>59</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="17">
         <v>32.993670000000002</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="17">
         <v>35.514969999999998</v>
       </c>
-      <c r="D12" s="7" t="s">
-        <v>63</v>
+      <c r="D12" s="6" t="s">
+        <v>60</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>64</v>
+      <c r="B13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="17">
         <v>31.840555999999999</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="17">
         <v>34.991667</v>
       </c>
-      <c r="D14" s="7" t="s">
-        <v>65</v>
+      <c r="D14" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="8">
+        <v>63</v>
+      </c>
+      <c r="B15" s="18">
         <v>31.865844263673001</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="17">
         <v>35.431491499750599</v>
       </c>
-      <c r="D15" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>55</v>
+      <c r="D15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B16" s="8">
+        <v>67</v>
+      </c>
+      <c r="B16" s="18">
         <v>31.865844263673001</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="17">
         <v>35.431491499750599</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>55</v>
+      <c r="D16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B17" s="8">
+        <v>73</v>
+      </c>
+      <c r="B17" s="18">
         <v>31.865844263673001</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="17">
         <v>35.431491499750599</v>
       </c>
-      <c r="D17" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>55</v>
+      <c r="D17" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="B18" s="8">
+        <v>74</v>
+      </c>
+      <c r="B18" s="18">
         <v>31.865844263673001</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18" s="17">
         <v>35.431491499750599</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>55</v>
+      <c r="D18" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B19" s="8">
+        <v>75</v>
+      </c>
+      <c r="B19" s="18">
         <v>31.865844263673001</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="17">
         <v>35.431491499750599</v>
       </c>
-      <c r="D19" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>55</v>
+      <c r="D19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B20" s="8">
+        <v>79</v>
+      </c>
+      <c r="B20" s="18">
         <v>31.762499999999999</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="18">
         <v>35.265833000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>99</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>53</v>
+        <v>95</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="8">
+        <v>80</v>
+      </c>
+      <c r="B21" s="18">
         <v>31.763639000000001</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="18">
         <v>35.232638999999999</v>
       </c>
       <c r="D21" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="8">
+        <v>81</v>
+      </c>
+      <c r="B22" s="18">
         <v>31.763639000000001</v>
       </c>
-      <c r="C22" s="8">
+      <c r="C22" s="18">
         <v>35.232638999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>98</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="18">
+        <v>31.763639000000001</v>
+      </c>
+      <c r="C23" s="18">
+        <v>35.232638999999999</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="19">
+        <v>31.799444000000001</v>
+      </c>
+      <c r="C24" s="20">
+        <v>35.228056000000002</v>
+      </c>
+      <c r="D24" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="19">
+        <v>31.75</v>
+      </c>
+      <c r="C25" s="20">
+        <v>35.22</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="19">
+        <v>31.75</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>106</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B23" s="8">
-        <v>31.763639000000001</v>
-      </c>
-      <c r="C23" s="8">
-        <v>35.232638999999999</v>
-      </c>
-      <c r="D23" t="s">
-        <v>98</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="B24" s="12">
-        <v>31.799444000000001</v>
-      </c>
-      <c r="C24">
-        <v>35.228056000000002</v>
-      </c>
-      <c r="D24" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="B25" s="12">
+      <c r="B27" s="19">
         <v>31.75</v>
       </c>
-      <c r="C25">
-        <v>35.22</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="C27" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="E25" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="B26" s="12">
-        <v>31.75</v>
-      </c>
-      <c r="C26" t="s">
-        <v>109</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="19">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C28" s="20">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D28" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>90</v>
-      </c>
-      <c r="B27" s="12">
-        <v>31.75</v>
-      </c>
-      <c r="C27" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="E28" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="19">
+        <v>31.805700000000002</v>
+      </c>
+      <c r="C29" s="20">
+        <v>35.238992000000003</v>
+      </c>
+      <c r="D29" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="B28" s="12">
+      <c r="E29" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C28">
+      <c r="C30" s="20">
         <v>35.238992000000003</v>
       </c>
-      <c r="D28" t="s">
-        <v>114</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="B29" s="12">
+      <c r="D30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C29">
+      <c r="C31" s="20">
         <v>35.238992000000003</v>
       </c>
-      <c r="D29" t="s">
-        <v>114</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
+      <c r="D31" t="s">
+        <v>110</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B32" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C30">
+      <c r="C32" s="20">
         <v>35.238992000000003</v>
       </c>
-      <c r="D30" t="s">
-        <v>114</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
+      <c r="D32" t="s">
+        <v>110</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B33" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C31">
+      <c r="C33" s="20">
         <v>35.238992000000003</v>
       </c>
-      <c r="D31" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
+      <c r="D33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B34" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C32">
+      <c r="C34" s="20">
         <v>35.238992000000003</v>
       </c>
-      <c r="D32" t="s">
-        <v>114</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="9" t="s">
+      <c r="D34" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B35" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C33">
+      <c r="C35" s="16">
         <v>35.238992000000003</v>
       </c>
-      <c r="D33" t="s">
-        <v>114</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="9" t="s">
+      <c r="D35" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B36" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C34">
+      <c r="C36" s="16">
         <v>35.238992000000003</v>
       </c>
-      <c r="D34" t="s">
-        <v>114</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="9" t="s">
-        <v>128</v>
-      </c>
-      <c r="B35" s="12">
+      <c r="D36" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="B37" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C35" s="10">
+      <c r="C37" s="16">
         <v>35.238992000000003</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="9" t="s">
-        <v>130</v>
-      </c>
-      <c r="B36" s="12">
+      <c r="D37" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="19">
         <v>31.805700000000002</v>
       </c>
-      <c r="C36" s="10">
+      <c r="C38" s="16">
         <v>35.238992000000003</v>
       </c>
-      <c r="D36" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="B37" s="12">
-        <v>31.805700000000002</v>
-      </c>
-      <c r="C37" s="10">
-        <v>35.238992000000003</v>
-      </c>
-      <c r="D37" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B38" s="12">
-        <v>31.805700000000002</v>
-      </c>
-      <c r="C38" s="10">
-        <v>35.238992000000003</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>55</v>
+      <c r="D38" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E38" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="B39" s="12">
+        <v>133</v>
+      </c>
+      <c r="B39" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D39" t="s">
-        <v>140</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E39" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="B40" s="12">
+        <v>137</v>
+      </c>
+      <c r="B40" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D40" t="s">
-        <v>140</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E40" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="B41" s="12">
+        <v>139</v>
+      </c>
+      <c r="B41" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D41" t="s">
-        <v>140</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B42" s="12">
+        <v>141</v>
+      </c>
+      <c r="B42" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D42" t="s">
-        <v>140</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B43" s="12">
+        <v>144</v>
+      </c>
+      <c r="B43" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D43" t="s">
-        <v>140</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="B44" s="12">
+        <v>146</v>
+      </c>
+      <c r="B44" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="B45" s="12">
+        <v>148</v>
+      </c>
+      <c r="B45" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D45" t="s">
-        <v>140</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="12">
+        <v>150</v>
+      </c>
+      <c r="B46" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D46" t="s">
-        <v>140</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B47" s="12">
+        <v>153</v>
+      </c>
+      <c r="B47" s="19">
         <v>31.803058</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="20">
         <v>35.231279999999998</v>
       </c>
       <c r="D47" t="s">
-        <v>140</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>55</v>
+        <v>136</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B48" s="12">
+        <v>155</v>
+      </c>
+      <c r="B48" s="19">
         <v>31.765000000000001</v>
       </c>
-      <c r="C48" s="12">
+      <c r="C48" s="19">
         <v>35.197221999999996</v>
       </c>
       <c r="D48" t="s">
-        <v>161</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>55</v>
+        <v>157</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B49" s="12">
+        <v>158</v>
+      </c>
+      <c r="B49" s="19">
         <v>31.78</v>
       </c>
-      <c r="C49" s="12">
+      <c r="C49" s="19">
         <v>35.200000000000003</v>
       </c>
       <c r="D49" t="s">
-        <v>164</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>55</v>
+        <v>160</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="B50" s="12">
+        <v>161</v>
+      </c>
+      <c r="B50" s="19">
         <v>31.835000000000001</v>
       </c>
       <c r="C50" s="12">
         <v>35.261944</v>
       </c>
       <c r="D50" t="s">
+        <v>164</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="21">
+        <v>31.7866905499965</v>
+      </c>
+      <c r="C51" s="21">
+        <v>35.177678728442601</v>
+      </c>
+      <c r="D51" t="s">
         <v>168</v>
       </c>
-      <c r="E50" s="10" t="s">
+      <c r="E51" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="E52" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" s="10">
+        <v>31.7</v>
+      </c>
+      <c r="C53" s="14">
+        <v>35.216667000000001</v>
+      </c>
+      <c r="D53" t="s">
+        <v>175</v>
+      </c>
+      <c r="E53" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="10">
+        <v>31.7</v>
+      </c>
+      <c r="C54" s="14">
+        <v>35.216667000000001</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="10">
+        <v>31.767700000000001</v>
+      </c>
+      <c r="C55" s="14">
+        <v>35.235500000000002</v>
+      </c>
+      <c r="D55" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B56" s="10">
+        <v>31.77</v>
+      </c>
+      <c r="C56" s="14">
+        <v>35.237000000000002</v>
+      </c>
+      <c r="D56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B57" s="10">
+        <v>31.77</v>
+      </c>
+      <c r="C57" s="14">
+        <v>35.237000000000002</v>
+      </c>
+      <c r="D57" t="s">
+        <v>184</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B59" s="10">
+        <v>31.754041999999998</v>
+      </c>
+      <c r="C59" s="14">
+        <v>35.212555999999999</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B60" s="10">
+        <v>31.765599999999999</v>
+      </c>
+      <c r="C60" s="10">
+        <v>35.240699999999997</v>
+      </c>
+      <c r="D60" t="s">
+        <v>194</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E62" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B63" s="10">
+        <v>31.778333</v>
+      </c>
+      <c r="C63" s="14">
+        <v>35.243889000000003</v>
+      </c>
+      <c r="D63" t="s">
+        <v>200</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B64" s="10">
+        <v>31.7925</v>
+      </c>
+      <c r="C64" s="14">
+        <v>35.244166999999997</v>
+      </c>
+      <c r="D64" t="s">
+        <v>205</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B65" s="10">
+        <v>31.7925</v>
+      </c>
+      <c r="C65" s="14">
+        <v>35.244166999999997</v>
+      </c>
+      <c r="D65" t="s">
+        <v>205</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B66" s="13">
+        <v>31.786655574505801</v>
+      </c>
+      <c r="C66" s="14">
+        <v>35.250540286875797</v>
+      </c>
+      <c r="D66" t="s">
+        <v>208</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B67" s="10">
+        <v>31.793628000000002</v>
+      </c>
+      <c r="C67" s="14">
+        <v>35.244197</v>
+      </c>
+      <c r="D67" t="s">
+        <v>212</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B68" s="10">
+        <v>31.793628000000002</v>
+      </c>
+      <c r="C68" s="13">
+        <v>35.244197</v>
+      </c>
+      <c r="D68" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E68" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B69" s="10">
+        <v>31.793628000000002</v>
+      </c>
+      <c r="C69" s="13">
+        <v>35.244197</v>
+      </c>
+      <c r="D69" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E69" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B70" s="10">
+        <v>31.793628000000002</v>
+      </c>
+      <c r="C70" s="13">
+        <v>35.244197</v>
+      </c>
+      <c r="D70" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B71" s="10">
+        <v>31.793628000000002</v>
+      </c>
+      <c r="C71" s="13">
+        <v>35.244197</v>
+      </c>
+      <c r="D71" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B72" s="10">
+        <v>31.793628000000002</v>
+      </c>
+      <c r="C72" s="13">
+        <v>35.244197</v>
+      </c>
+      <c r="D72" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E72" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="10"/>
+      <c r="C73" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
